--- a/Results/random_forest_results.xlsx
+++ b/Results/random_forest_results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Random Forest Results Test Data" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Random Forest Results All Data" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Random Forest Results Test Data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Random Forest Results All Data" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Results/random_forest_results.xlsx
+++ b/Results/random_forest_results.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,13 +451,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4005815306886227</v>
+        <v>-0.2839661736822146</v>
       </c>
       <c r="C2" t="n">
-        <v>4.353664239200389</v>
+        <v>5.004301995437372</v>
       </c>
       <c r="D2" t="n">
-        <v>3.614615384615384</v>
+        <v>3.775384615384615</v>
       </c>
     </row>
     <row r="3">
@@ -467,13 +467,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.0770589531680439</v>
+        <v>-0.6851001254705147</v>
       </c>
       <c r="C3" t="n">
-        <v>1.317226106401105</v>
+        <v>1.409511644834152</v>
       </c>
       <c r="D3" t="n">
-        <v>1.020769230769231</v>
+        <v>1.084615384615385</v>
       </c>
     </row>
     <row r="4">
@@ -483,13 +483,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.2143311239193082</v>
+        <v>0.02891150442477874</v>
       </c>
       <c r="C4" t="n">
-        <v>1.579028425719679</v>
+        <v>1.452669955633419</v>
       </c>
       <c r="D4" t="n">
-        <v>1.273846153846154</v>
+        <v>1.186538461538462</v>
       </c>
     </row>
     <row r="5">
@@ -499,13 +499,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.7676929133858268</v>
+        <v>-0.2274506024096385</v>
       </c>
       <c r="C5" t="n">
-        <v>1.152555688626201</v>
+        <v>1.0271094616222</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9630769230769231</v>
+        <v>0.8253846153846154</v>
       </c>
     </row>
     <row r="6">
@@ -515,13 +515,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.2832260387811636</v>
+        <v>0.2224457627118644</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8278122232264252</v>
+        <v>1.165018983008101</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5711538461538462</v>
+        <v>0.8761538461538462</v>
       </c>
     </row>
     <row r="7">
@@ -531,13 +531,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01481873804971323</v>
+        <v>-0.2688975802469138</v>
       </c>
       <c r="C7" t="n">
-        <v>1.512154601375646</v>
+        <v>1.949631128819382</v>
       </c>
       <c r="D7" t="n">
-        <v>1.197307692307692</v>
+        <v>1.626923076923077</v>
       </c>
     </row>
     <row r="8">
@@ -547,13 +547,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.1988311422413795</v>
+        <v>-0.3644483634963418</v>
       </c>
       <c r="C8" t="n">
-        <v>1.814239616096888</v>
+        <v>2.289502801248139</v>
       </c>
       <c r="D8" t="n">
-        <v>1.487307692307692</v>
+        <v>1.843076923076923</v>
       </c>
     </row>
     <row r="9">
@@ -563,13 +563,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1263547757094905</v>
+        <v>-0.0001270435446905083</v>
       </c>
       <c r="C9" t="n">
-        <v>2.057938662463373</v>
+        <v>2.783261783204403</v>
       </c>
       <c r="D9" t="n">
-        <v>1.513461538461538</v>
+        <v>2.215384615384616</v>
       </c>
     </row>
     <row r="10">
@@ -579,13 +579,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.259876849642005</v>
+        <v>-0.32102810527936</v>
       </c>
       <c r="C10" t="n">
-        <v>3.061176244517783</v>
+        <v>3.563191093560766</v>
       </c>
       <c r="D10" t="n">
-        <v>2.481538461538461</v>
+        <v>3.026923076923076</v>
       </c>
     </row>
     <row r="11">
@@ -595,13 +595,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02779631739303212</v>
+        <v>-0.3470879054865839</v>
       </c>
       <c r="C11" t="n">
-        <v>3.29495885348419</v>
+        <v>4.461325260157914</v>
       </c>
       <c r="D11" t="n">
-        <v>2.682307692307693</v>
+        <v>3.656153846153846</v>
       </c>
     </row>
     <row r="12">
@@ -611,13 +611,45 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.02937983870967731</v>
+        <v>-0.300520913884007</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6145260838176909</v>
+        <v>1.046264417233632</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4642307692307692</v>
+        <v>0.7569230769230769</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>PC1_Dist_Prod</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>-0.2356928007254337</v>
+      </c>
+      <c r="C13" t="n">
+        <v>4237.058182910351</v>
+      </c>
+      <c r="D13" t="n">
+        <v>3242.699998207093</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>PC2_Dist_Prod</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>-0.2508118946469473</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3068.119678027522</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2549.154627065298</v>
       </c>
     </row>
   </sheetData>
@@ -631,7 +663,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -668,13 +700,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7658746469670783</v>
+        <v>0.7066648063061165</v>
       </c>
       <c r="C2" t="n">
-        <v>2.563779511700525</v>
+        <v>2.869713467337006</v>
       </c>
       <c r="D2" t="n">
-        <v>1.842538461538461</v>
+        <v>2.072153846153846</v>
       </c>
     </row>
     <row r="3">
@@ -684,13 +716,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6042151946107785</v>
+        <v>0.5820405127245509</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7075374412490344</v>
+        <v>0.7270879747849796</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4775384615384615</v>
+        <v>0.4790769230769231</v>
       </c>
     </row>
     <row r="4">
@@ -700,13 +732,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6615368139223562</v>
+        <v>0.6856593038821954</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8820116866485473</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>0.63</v>
+        <v>0.6470769230769231</v>
       </c>
     </row>
     <row r="5">
@@ -716,13 +748,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5888486241200768</v>
+        <v>0.6437497818372214</v>
       </c>
       <c r="C5" t="n">
-        <v>0.646670169168416</v>
+        <v>0.6019487583609652</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4366923076923077</v>
+        <v>0.4148461538461538</v>
       </c>
     </row>
     <row r="6">
@@ -732,13 +764,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7720086575133486</v>
+        <v>0.689767543859649</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5947468756991046</v>
+        <v>0.6937717425560304</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4193076923076923</v>
+        <v>0.4677692307692308</v>
       </c>
     </row>
     <row r="7">
@@ -748,13 +780,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7259308567747477</v>
+        <v>0.6433267482642617</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9519857788207359</v>
+        <v>1.086014591203862</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7030769230769232</v>
+        <v>0.7693846153846154</v>
       </c>
     </row>
     <row r="8">
@@ -764,13 +796,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.6415722290467878</v>
+        <v>0.5137508027844228</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9920216343794742</v>
+        <v>1.155446300719403</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6899230769230769</v>
+        <v>0.7130000000000001</v>
       </c>
     </row>
     <row r="9">
@@ -780,13 +812,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.7589034091345452</v>
+        <v>0.6456831325023615</v>
       </c>
       <c r="C9" t="n">
-        <v>1.362927279509354</v>
+        <v>1.652239738611245</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8589230769230769</v>
+        <v>1.130692307692308</v>
       </c>
     </row>
     <row r="10">
@@ -796,13 +828,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6673203023658547</v>
+        <v>0.6029872126635455</v>
       </c>
       <c r="C10" t="n">
-        <v>1.729037304398028</v>
+        <v>1.888832565776666</v>
       </c>
       <c r="D10" t="n">
-        <v>1.207153846153846</v>
+        <v>1.259615384615385</v>
       </c>
     </row>
     <row r="11">
@@ -812,13 +844,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6976268327632207</v>
+        <v>0.5624304454597648</v>
       </c>
       <c r="C11" t="n">
-        <v>1.925730231127123</v>
+        <v>2.316580371017724</v>
       </c>
       <c r="D11" t="n">
-        <v>1.371692307692308</v>
+        <v>1.518</v>
       </c>
     </row>
     <row r="12">
@@ -828,13 +860,45 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.7696094175030486</v>
+        <v>0.5380262639527249</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3812308002731719</v>
+        <v>0.5398390073402939</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2592307692307693</v>
+        <v>0.3258461538461538</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>PC1_Dist_Prod</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.6417287303091952</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2407.995363833982</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1678.314584307868</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>PC2_Dist_Prod</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.669767907047335</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1772.910477928692</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1295.705595187186</v>
       </c>
     </row>
   </sheetData>

--- a/Results/random_forest_results.xlsx
+++ b/Results/random_forest_results.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,13 +451,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.2839661736822146</v>
+        <v>0.07751843476984055</v>
       </c>
       <c r="C2" t="n">
-        <v>5.004301995437372</v>
+        <v>4.31131739637755</v>
       </c>
       <c r="D2" t="n">
-        <v>3.775384615384615</v>
+        <v>3.611923076923077</v>
       </c>
     </row>
     <row r="3">
@@ -467,13 +467,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.6851001254705147</v>
+        <v>-0.25983</v>
       </c>
       <c r="C3" t="n">
-        <v>1.409511644834152</v>
+        <v>1.309412669276397</v>
       </c>
       <c r="D3" t="n">
-        <v>1.084615384615385</v>
+        <v>1.065384615384615</v>
       </c>
     </row>
     <row r="4">
@@ -483,13 +483,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02891150442477874</v>
+        <v>-0.04422099927588685</v>
       </c>
       <c r="C4" t="n">
-        <v>1.452669955633419</v>
+        <v>1.460561009180534</v>
       </c>
       <c r="D4" t="n">
-        <v>1.186538461538462</v>
+        <v>1.226153846153846</v>
       </c>
     </row>
     <row r="5">
@@ -499,13 +499,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.2274506024096385</v>
+        <v>-0.3654043604651167</v>
       </c>
       <c r="C5" t="n">
-        <v>1.0271094616222</v>
+        <v>1.178830907167058</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8253846153846154</v>
+        <v>1.028076923076923</v>
       </c>
     </row>
     <row r="6">
@@ -515,13 +515,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2224457627118644</v>
+        <v>0.1779158620689655</v>
       </c>
       <c r="C6" t="n">
-        <v>1.165018983008101</v>
+        <v>1.187719210536279</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8761538461538462</v>
+        <v>0.9115384615384616</v>
       </c>
     </row>
     <row r="7">
@@ -531,13 +531,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.2688975802469138</v>
+        <v>-0.07968643497757855</v>
       </c>
       <c r="C7" t="n">
-        <v>1.949631128819382</v>
+        <v>1.688001777250249</v>
       </c>
       <c r="D7" t="n">
-        <v>1.626923076923077</v>
+        <v>1.355769230769231</v>
       </c>
     </row>
     <row r="8">
@@ -547,13 +547,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.3644483634963418</v>
+        <v>-0.372506271477663</v>
       </c>
       <c r="C8" t="n">
-        <v>2.289502801248139</v>
+        <v>2.174078938486188</v>
       </c>
       <c r="D8" t="n">
-        <v>1.843076923076923</v>
+        <v>1.672692307692307</v>
       </c>
     </row>
     <row r="9">
@@ -563,13 +563,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.0001270435446905083</v>
+        <v>-0.1031370745836349</v>
       </c>
       <c r="C9" t="n">
-        <v>2.783261783204403</v>
+        <v>3.002397759740089</v>
       </c>
       <c r="D9" t="n">
-        <v>2.215384615384616</v>
+        <v>2.403076923076923</v>
       </c>
     </row>
     <row r="10">
@@ -579,13 +579,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.32102810527936</v>
+        <v>-0.2868376103190768</v>
       </c>
       <c r="C10" t="n">
-        <v>3.563191093560766</v>
+        <v>3.349036600851976</v>
       </c>
       <c r="D10" t="n">
-        <v>3.026923076923076</v>
+        <v>2.816923076923077</v>
       </c>
     </row>
     <row r="11">
@@ -595,13 +595,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.3470879054865839</v>
+        <v>-0.3902114490964197</v>
       </c>
       <c r="C11" t="n">
-        <v>4.461325260157914</v>
+        <v>4.280372467617563</v>
       </c>
       <c r="D11" t="n">
-        <v>3.656153846153846</v>
+        <v>3.448846153846154</v>
       </c>
     </row>
     <row r="12">
@@ -611,13 +611,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.300520913884007</v>
+        <v>-0.3111179738562095</v>
       </c>
       <c r="C12" t="n">
-        <v>1.046264417233632</v>
+        <v>1.089490000660154</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7569230769230769</v>
+        <v>0.8288461538461539</v>
       </c>
     </row>
     <row r="13">
@@ -627,13 +627,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.2356928007254337</v>
+        <v>-0.6960461386535872</v>
       </c>
       <c r="C13" t="n">
-        <v>4237.058182910351</v>
+        <v>3731.791528007803</v>
       </c>
       <c r="D13" t="n">
-        <v>3242.699998207093</v>
+        <v>2941.269251531434</v>
       </c>
     </row>
     <row r="14">
@@ -643,13 +643,29 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.2508118946469473</v>
+        <v>-0.3485352197866356</v>
       </c>
       <c r="C14" t="n">
-        <v>3068.119678027522</v>
+        <v>2944.382360914854</v>
       </c>
       <c r="D14" t="n">
-        <v>2549.154627065298</v>
+        <v>2291.582136204303</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Avg_Distancia_casas_parcelas</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>-0.2168388483311774</v>
+      </c>
+      <c r="C15" t="n">
+        <v>712387.2241457707</v>
+      </c>
+      <c r="D15" t="n">
+        <v>228921.6350208651</v>
       </c>
     </row>
   </sheetData>
@@ -663,7 +679,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -700,13 +716,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7066648063061165</v>
+        <v>0.7687124569348213</v>
       </c>
       <c r="C2" t="n">
-        <v>2.869713467337006</v>
+        <v>2.558018703982142</v>
       </c>
       <c r="D2" t="n">
-        <v>2.072153846153846</v>
+        <v>2.004728682170543</v>
       </c>
     </row>
     <row r="3">
@@ -716,13 +732,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5820405127245509</v>
+        <v>0.6122393494476442</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7270879747849796</v>
+        <v>0.7025474135010777</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4790769230769231</v>
+        <v>0.487829457364341</v>
       </c>
     </row>
     <row r="4">
@@ -732,13 +748,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6856593038821954</v>
+        <v>0.6790551719590674</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8500000000000001</v>
+        <v>0.8551390475809618</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6470769230769231</v>
+        <v>0.6467441860465116</v>
       </c>
     </row>
     <row r="5">
@@ -748,13 +764,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6437497818372214</v>
+        <v>0.5745264885496183</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6019487583609652</v>
+        <v>0.6598631523618828</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4148461538461538</v>
+        <v>0.4489147286821705</v>
       </c>
     </row>
     <row r="6">
@@ -764,13 +780,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.689767543859649</v>
+        <v>0.6898905802126676</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6937717425560304</v>
+        <v>0.6954832127555677</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4677692307692308</v>
+        <v>0.4721705426356589</v>
       </c>
     </row>
     <row r="7">
@@ -780,13 +796,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6433267482642617</v>
+        <v>0.6770937936583403</v>
       </c>
       <c r="C7" t="n">
-        <v>1.086014591203862</v>
+        <v>1.030117025037116</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7693846153846154</v>
+        <v>0.7449612403100775</v>
       </c>
     </row>
     <row r="8">
@@ -796,13 +812,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.5137508027844228</v>
+        <v>0.5276555774796108</v>
       </c>
       <c r="C8" t="n">
-        <v>1.155446300719403</v>
+        <v>1.13783488127859</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7130000000000001</v>
+        <v>0.7144186046511628</v>
       </c>
     </row>
     <row r="9">
@@ -812,13 +828,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.6456831325023615</v>
+        <v>0.6191919078600043</v>
       </c>
       <c r="C9" t="n">
-        <v>1.652239738611245</v>
+        <v>1.716832986599444</v>
       </c>
       <c r="D9" t="n">
-        <v>1.130692307692308</v>
+        <v>1.162558139534884</v>
       </c>
     </row>
     <row r="10">
@@ -828,13 +844,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6029872126635455</v>
+        <v>0.5951928493647913</v>
       </c>
       <c r="C10" t="n">
-        <v>1.888832565776666</v>
+        <v>1.902357166963574</v>
       </c>
       <c r="D10" t="n">
-        <v>1.259615384615385</v>
+        <v>1.30015503875969</v>
       </c>
     </row>
     <row r="11">
@@ -844,13 +860,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.5624304454597648</v>
+        <v>0.5622449748372547</v>
       </c>
       <c r="C11" t="n">
-        <v>2.316580371017724</v>
+        <v>2.311305211984288</v>
       </c>
       <c r="D11" t="n">
-        <v>1.518</v>
+        <v>1.564496124031008</v>
       </c>
     </row>
     <row r="12">
@@ -860,13 +876,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.5380262639527249</v>
+        <v>0.5107998294485503</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5398390073402939</v>
+        <v>0.5570089000444087</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3258461538461538</v>
+        <v>0.344031007751938</v>
       </c>
     </row>
     <row r="13">
@@ -876,13 +892,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.6417287303091952</v>
+        <v>0.691826293217064</v>
       </c>
       <c r="C13" t="n">
-        <v>2407.995363833982</v>
+        <v>2239.998009133622</v>
       </c>
       <c r="D13" t="n">
-        <v>1678.314584307868</v>
+        <v>1690.509345282769</v>
       </c>
     </row>
     <row r="14">
@@ -892,13 +908,29 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.669767907047335</v>
+        <v>0.6783008126005174</v>
       </c>
       <c r="C14" t="n">
-        <v>1772.910477928692</v>
+        <v>1752.259451691366</v>
       </c>
       <c r="D14" t="n">
-        <v>1295.705595187186</v>
+        <v>1256.675635653676</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Avg_Distancia_casas_parcelas</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.5902728765106631</v>
+      </c>
+      <c r="C15" t="n">
+        <v>414904.9478810306</v>
+      </c>
+      <c r="D15" t="n">
+        <v>132159.7612984562</v>
       </c>
     </row>
   </sheetData>

--- a/Results/random_forest_results.xlsx
+++ b/Results/random_forest_results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Random Forest Results Test Data" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Random Forest Results All Data" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Random Forest Results Test Data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Random Forest Results All Data" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,13 +451,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.07751843476984055</v>
+        <v>0.5980079174311927</v>
       </c>
       <c r="C2" t="n">
-        <v>4.31131739637755</v>
+        <v>3.600506908756043</v>
       </c>
       <c r="D2" t="n">
-        <v>3.611923076923077</v>
+        <v>2.812692307692308</v>
       </c>
     </row>
     <row r="3">
@@ -467,13 +467,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.25983</v>
+        <v>-0.2629597305389222</v>
       </c>
       <c r="C3" t="n">
-        <v>1.309412669276397</v>
+        <v>1.579881933271257</v>
       </c>
       <c r="D3" t="n">
-        <v>1.065384615384615</v>
+        <v>1.240384615384615</v>
       </c>
     </row>
     <row r="4">
@@ -483,13 +483,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.04422099927588685</v>
+        <v>0.09442647975077867</v>
       </c>
       <c r="C4" t="n">
-        <v>1.460561009180534</v>
+        <v>1.311508233353434</v>
       </c>
       <c r="D4" t="n">
-        <v>1.226153846153846</v>
+        <v>1.077692307692308</v>
       </c>
     </row>
     <row r="5">
@@ -499,13 +499,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.3654043604651167</v>
+        <v>-0.3188192913385828</v>
       </c>
       <c r="C5" t="n">
-        <v>1.178830907167058</v>
+        <v>0.995522669061526</v>
       </c>
       <c r="D5" t="n">
-        <v>1.028076923076923</v>
+        <v>0.8203846153846155</v>
       </c>
     </row>
     <row r="6">
@@ -515,13 +515,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1779158620689655</v>
+        <v>-0.5728055401662053</v>
       </c>
       <c r="C6" t="n">
-        <v>1.187719210536279</v>
+        <v>0.9164689763518373</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9115384615384616</v>
+        <v>0.6515384615384616</v>
       </c>
     </row>
     <row r="7">
@@ -531,13 +531,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.07968643497757855</v>
+        <v>-0.1774050408719345</v>
       </c>
       <c r="C7" t="n">
-        <v>1.688001777250249</v>
+        <v>1.599015322002888</v>
       </c>
       <c r="D7" t="n">
-        <v>1.355769230769231</v>
+        <v>1.165</v>
       </c>
     </row>
     <row r="8">
@@ -547,13 +547,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.372506271477663</v>
+        <v>-0.001158297413793141</v>
       </c>
       <c r="C8" t="n">
-        <v>2.174078938486188</v>
+        <v>1.65793314331197</v>
       </c>
       <c r="D8" t="n">
-        <v>1.672692307692307</v>
+        <v>1.338846153846154</v>
       </c>
     </row>
     <row r="9">
@@ -563,13 +563,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.1031370745836349</v>
+        <v>0.1013091975308642</v>
       </c>
       <c r="C9" t="n">
-        <v>3.002397759740089</v>
+        <v>2.075411914629146</v>
       </c>
       <c r="D9" t="n">
-        <v>2.403076923076923</v>
+        <v>1.557307692307692</v>
       </c>
     </row>
     <row r="10">
@@ -579,13 +579,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.2868376103190768</v>
+        <v>-0.1686827385892113</v>
       </c>
       <c r="C10" t="n">
-        <v>3.349036600851976</v>
+        <v>2.886678954198991</v>
       </c>
       <c r="D10" t="n">
-        <v>2.816923076923077</v>
+        <v>2.339230769230769</v>
       </c>
     </row>
     <row r="11">
@@ -595,13 +595,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.3902114490964197</v>
+        <v>0.09974291938997792</v>
       </c>
       <c r="C11" t="n">
-        <v>4.280372467617563</v>
+        <v>3.12734834841079</v>
       </c>
       <c r="D11" t="n">
-        <v>3.448846153846154</v>
+        <v>2.450769230769231</v>
       </c>
     </row>
     <row r="12">
@@ -611,61 +611,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.3111179738562095</v>
+        <v>-0.1812282258064515</v>
       </c>
       <c r="C12" t="n">
-        <v>1.089490000660154</v>
+        <v>0.6582932477247506</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8288461538461539</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>PC1_Dist_Prod</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-0.6960461386535872</v>
-      </c>
-      <c r="C13" t="n">
-        <v>3731.791528007803</v>
-      </c>
-      <c r="D13" t="n">
-        <v>2941.269251531434</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>PC2_Dist_Prod</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>-0.3485352197866356</v>
-      </c>
-      <c r="C14" t="n">
-        <v>2944.382360914854</v>
-      </c>
-      <c r="D14" t="n">
-        <v>2291.582136204303</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Avg_Distancia_casas_parcelas</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>-0.2168388483311774</v>
-      </c>
-      <c r="C15" t="n">
-        <v>712387.2241457707</v>
-      </c>
-      <c r="D15" t="n">
-        <v>228921.6350208651</v>
+        <v>0.4988461538461539</v>
       </c>
     </row>
   </sheetData>
@@ -679,7 +631,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -716,13 +668,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7687124569348213</v>
+        <v>0.8164400018691669</v>
       </c>
       <c r="C2" t="n">
-        <v>2.558018703982142</v>
+        <v>2.278854601455223</v>
       </c>
       <c r="D2" t="n">
-        <v>2.004728682170543</v>
+        <v>1.613643410852713</v>
       </c>
     </row>
     <row r="3">
@@ -732,13 +684,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6122393494476442</v>
+        <v>0.5022008025682183</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7025474135010777</v>
+        <v>0.7960142961592602</v>
       </c>
       <c r="D3" t="n">
-        <v>0.487829457364341</v>
+        <v>0.5075968992248062</v>
       </c>
     </row>
     <row r="4">
@@ -748,13 +700,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6790551719590674</v>
+        <v>0.7312563508808947</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8551390475809618</v>
+        <v>0.7825113615838124</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6467441860465116</v>
+        <v>0.5840310077519381</v>
       </c>
     </row>
     <row r="5">
@@ -764,13 +716,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5745264885496183</v>
+        <v>0.6552904873752202</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6598631523618828</v>
+        <v>0.5939422883247708</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4489147286821705</v>
+        <v>0.4131782945736434</v>
       </c>
     </row>
     <row r="6">
@@ -780,13 +732,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6898905802126676</v>
+        <v>0.7559024387424873</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6954832127555677</v>
+        <v>0.6170365536393543</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4721705426356589</v>
+        <v>0.4290697674418604</v>
       </c>
     </row>
     <row r="7">
@@ -796,13 +748,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6770937936583403</v>
+        <v>0.7429353125114289</v>
       </c>
       <c r="C7" t="n">
-        <v>1.030117025037116</v>
+        <v>0.919114420422973</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7449612403100775</v>
+        <v>0.6383720930232558</v>
       </c>
     </row>
     <row r="8">
@@ -812,13 +764,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.5276555774796108</v>
+        <v>0.6856788805577479</v>
       </c>
       <c r="C8" t="n">
-        <v>1.13783488127859</v>
+        <v>0.9281894520596152</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7144186046511628</v>
+        <v>0.6481395348837209</v>
       </c>
     </row>
     <row r="9">
@@ -828,13 +780,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.6191919078600043</v>
+        <v>0.7724230241296854</v>
       </c>
       <c r="C9" t="n">
-        <v>1.716832986599444</v>
+        <v>1.327208412625024</v>
       </c>
       <c r="D9" t="n">
-        <v>1.162558139534884</v>
+        <v>0.852248062015504</v>
       </c>
     </row>
     <row r="10">
@@ -844,13 +796,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.5951928493647913</v>
+        <v>0.7009614902198025</v>
       </c>
       <c r="C10" t="n">
-        <v>1.902357166963574</v>
+        <v>1.63505185656095</v>
       </c>
       <c r="D10" t="n">
-        <v>1.30015503875969</v>
+        <v>1.161317829457364</v>
       </c>
     </row>
     <row r="11">
@@ -860,13 +812,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.5622449748372547</v>
+        <v>0.7285962674440363</v>
       </c>
       <c r="C11" t="n">
-        <v>2.311305211984288</v>
+        <v>1.819908848556505</v>
       </c>
       <c r="D11" t="n">
-        <v>1.564496124031008</v>
+        <v>1.32108527131783</v>
       </c>
     </row>
     <row r="12">
@@ -876,61 +828,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.5107998294485503</v>
+        <v>0.750996020466174</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5570089000444087</v>
+        <v>0.3973946157412743</v>
       </c>
       <c r="D12" t="n">
-        <v>0.344031007751938</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>PC1_Dist_Prod</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0.691826293217064</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2239.998009133622</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1690.509345282769</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>PC2_Dist_Prod</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0.6783008126005174</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1752.259451691366</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1256.675635653676</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Avg_Distancia_casas_parcelas</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0.5902728765106631</v>
-      </c>
-      <c r="C15" t="n">
-        <v>414904.9478810306</v>
-      </c>
-      <c r="D15" t="n">
-        <v>132159.7612984562</v>
+        <v>0.2685271317829457</v>
       </c>
     </row>
   </sheetData>

--- a/Results/random_forest_results.xlsx
+++ b/Results/random_forest_results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Random Forest Results Test Data" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Random Forest Results All Data" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Random Forest Results Test Data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Random Forest Results All Data" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -451,173 +451,173 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3015095514279422</v>
+        <v>0.6369705871559634</v>
       </c>
       <c r="C2" t="n">
-        <v>3.751555574794172</v>
+        <v>3.421572962609673</v>
       </c>
       <c r="D2" t="n">
-        <v>2.799999999999999</v>
+        <v>2.577692307692308</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Indeg_Var.Dep_RedeControlExtAusencia</t>
+          <t>OutDeg_Var.Dep_RedeControlExtAusencia</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.09796021739130434</v>
+        <v>0.4805919439579686</v>
       </c>
       <c r="C3" t="n">
-        <v>1.222401482580656</v>
+        <v>1.147254247188612</v>
       </c>
       <c r="D3" t="n">
-        <v>1.028846153846154</v>
+        <v>0.8492307692307691</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Indeg_Var.Dep_ApoioSpecDiqCint</t>
+          <t>OutDeg_Var.Dep_ApoioSpecDiqCint</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.005621433743663973</v>
+        <v>0.7709902884675552</v>
       </c>
       <c r="C4" t="n">
-        <v>1.425277300954234</v>
+        <v>2.326781368857319</v>
       </c>
       <c r="D4" t="n">
-        <v>1.213076923076923</v>
+        <v>1.147307692307692</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Indeg_Var.Dep_ApoioSpecTubos</t>
+          <t>OutDeg_Var.Dep_ApoioSpecTubos</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1615</v>
+        <v>0.5795460131213728</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9237881875108683</v>
+        <v>11.32138599153084</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7100000000000001</v>
+        <v>2.475769230769231</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Indeg_Var.Dep_RedApoiLevntDiCin</t>
+          <t>OutDeg_Var.Dep_RedApoiLevntDiCin</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.2073503448275864</v>
+        <v>-0.2099671497584539</v>
       </c>
       <c r="C6" t="n">
-        <v>1.439369520097121</v>
+        <v>1.054287947822167</v>
       </c>
       <c r="D6" t="n">
-        <v>1.072307692307692</v>
+        <v>0.636923076923077</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Indeg_RedCont_DiqPriqDiqCint</t>
+          <t>OutDeg_RedCont_DiqPriqDiqCint</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1607071748878923</v>
+        <v>0.8728967593920275</v>
       </c>
       <c r="C7" t="n">
-        <v>1.488266932219641</v>
+        <v>1.402463491914797</v>
       </c>
       <c r="D7" t="n">
-        <v>1.177692307692308</v>
+        <v>1.071153846153846</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Indeg_RedeRepar_DiqPriqDiqCint</t>
+          <t>OutDeg_RedeRepar_DiqPriqDiqCint</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.4821731099656357</v>
+        <v>0.749918497237569</v>
       </c>
       <c r="C8" t="n">
-        <v>2.259267239956013</v>
+        <v>1.293828546482225</v>
       </c>
       <c r="D8" t="n">
-        <v>1.757307692307692</v>
+        <v>0.9192307692307692</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Indeg_Red-Val_Cont1Rep2DiqCin</t>
+          <t>OutDeg_Red-Val_Cont1Rep2DiqCin</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.128843265749457</v>
+        <v>0.08478880516684595</v>
       </c>
       <c r="C9" t="n">
-        <v>2.668097132357124</v>
+        <v>2.507726521710912</v>
       </c>
       <c r="D9" t="n">
-        <v>1.953461538461538</v>
+        <v>1.449230769230769</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Indeg_Red-Val_Cont1Rep2DiqPrq</t>
+          <t>OutDeg_Red-Val_Cont1Rep2DiqPrq</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.2009948065173117</v>
+        <v>0.8550759775659882</v>
       </c>
       <c r="C10" t="n">
-        <v>3.235404504492801</v>
+        <v>2.337983187410761</v>
       </c>
       <c r="D10" t="n">
-        <v>2.596538461538461</v>
+        <v>1.590384615384616</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Indeg_ContRep2_DiqPrqCin</t>
+          <t>OutDeg_ContRep2_DiqPrqCin</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.2531433830957459</v>
+        <v>0.8124430431403031</v>
       </c>
       <c r="C11" t="n">
-        <v>4.063885976595459</v>
+        <v>2.926872181908661</v>
       </c>
       <c r="D11" t="n">
-        <v>3.260769230769231</v>
+        <v>1.958846153846153</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Indeg_Var.Dep_RedePartilhaAgu</t>
+          <t>OutDeg_Var.Dep_RedePartilhaAgu</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.07996437908496756</v>
+        <v>0.1678483333333333</v>
       </c>
       <c r="C12" t="n">
-        <v>0.988796860214084</v>
+        <v>0.7686851911393396</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6349999999999999</v>
+        <v>0.5223076923076924</v>
       </c>
     </row>
   </sheetData>
@@ -668,173 +668,173 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8129225997136776</v>
+        <v>0.8213024840802212</v>
       </c>
       <c r="C2" t="n">
-        <v>2.300584859915934</v>
+        <v>2.248468729581752</v>
       </c>
       <c r="D2" t="n">
-        <v>1.614031007751938</v>
+        <v>1.568759689922481</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Indeg_Var.Dep_RedeControlExtAusencia</t>
+          <t>OutDeg_Var.Dep_RedeControlExtAusencia</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6385107213671986</v>
+        <v>0.8131247101602024</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6783307144303101</v>
+        <v>0.6528352000693685</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4833333333333334</v>
+        <v>0.4513178294573643</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Indeg_Var.Dep_ApoioSpecDiqCint</t>
+          <t>OutDeg_Var.Dep_ApoioSpecDiqCint</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7129586691634139</v>
+        <v>0.883785462513008</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8087117710792705</v>
+        <v>1.209533832938647</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5898449612403101</v>
+        <v>0.5347286821705427</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Indeg_Var.Dep_ApoioSpecTubos</t>
+          <t>OutDeg_Var.Dep_ApoioSpecTubos</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6909166059894303</v>
+        <v>0.6629772395568578</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5624131285201147</v>
+        <v>5.205021353157132</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3933333333333334</v>
+        <v>0.6926356589147287</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Indeg_Var.Dep_RedApoiLevntDiCin</t>
+          <t>OutDeg_Var.Dep_RedApoiLevntDiCin</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6226431923254738</v>
+        <v>0.7594915547798067</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7671941225696574</v>
+        <v>0.5682715531676162</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4808527131782946</v>
+        <v>0.3045736434108527</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Indeg_RedCont_DiqPriqDiqCint</t>
+          <t>OutDeg_RedCont_DiqPriqDiqCint</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7648659730095455</v>
+        <v>0.9410272846027418</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8790348830287654</v>
+        <v>0.8637349040626551</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6120930232558141</v>
+        <v>0.5696899224806201</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Indeg_RedeRepar_DiqPriqDiqCint</t>
+          <t>OutDeg_RedeRepar_DiqPriqDiqCint</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.5344240331491713</v>
+        <v>0.9260296981027558</v>
       </c>
       <c r="C8" t="n">
-        <v>1.129653167600466</v>
+        <v>0.7601055618243291</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6586046511627907</v>
+        <v>0.4506201550387596</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Indeg_Red-Val_Cont1Rep2DiqCin</t>
+          <t>OutDeg_Red-Val_Cont1Rep2DiqCin</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.7092117822427875</v>
+        <v>0.8104217832848758</v>
       </c>
       <c r="C9" t="n">
-        <v>1.500249074927795</v>
+        <v>1.288934720293582</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8905426356589147</v>
+        <v>0.6453488372093024</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Indeg_Red-Val_Cont1Rep2DiqPrq</t>
+          <t>OutDeg_Red-Val_Cont1Rep2DiqPrq</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6640072433958459</v>
+        <v>0.9398598150760392</v>
       </c>
       <c r="C10" t="n">
-        <v>1.73313713856846</v>
+        <v>1.451191971978512</v>
       </c>
       <c r="D10" t="n">
-        <v>1.134573643410853</v>
+        <v>0.8789147286821705</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Indeg_ContRep2_DiqPrqCin</t>
+          <t>OutDeg_ContRep2_DiqPrqCin</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6369150365869272</v>
+        <v>0.9349691974758869</v>
       </c>
       <c r="C11" t="n">
-        <v>2.104969756176702</v>
+        <v>1.667881960019395</v>
       </c>
       <c r="D11" t="n">
-        <v>1.34124031007752</v>
+        <v>0.9867441860465116</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Indeg_Var.Dep_RedePartilhaAgu</t>
+          <t>OutDeg_Var.Dep_RedePartilhaAgu</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.5929129619101762</v>
+        <v>0.6763709446665265</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5081155334654091</v>
+        <v>0.4299648444255186</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2803100775193798</v>
+        <v>0.2576744186046512</v>
       </c>
     </row>
   </sheetData>

--- a/Results/random_forest_results.xlsx
+++ b/Results/random_forest_results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Random Forest Results Test Data" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Random Forest Results All Data" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Random Forest Results Test Data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Random Forest Results All Data" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -451,173 +451,173 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6369705871559634</v>
+        <v>0.7100588532110093</v>
       </c>
       <c r="C2" t="n">
-        <v>3.421572962609673</v>
+        <v>3.057805271256343</v>
       </c>
       <c r="D2" t="n">
-        <v>2.577692307692308</v>
+        <v>2.296538461538462</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>OutDeg_Var.Dep_RedeControlExtAusencia</t>
+          <t>Indeg_Var.Dep_RedeControlExtAusencia</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4805919439579686</v>
+        <v>-0.2826971556886226</v>
       </c>
       <c r="C3" t="n">
-        <v>1.147254247188612</v>
+        <v>1.592179203288567</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8492307692307691</v>
+        <v>1.238846153846154</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>OutDeg_Var.Dep_ApoioSpecDiqCint</t>
+          <t>Indeg_Var.Dep_ApoioSpecDiqCint</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7709902884675552</v>
+        <v>0.1120676012461059</v>
       </c>
       <c r="C4" t="n">
-        <v>2.326781368857319</v>
+        <v>1.298670918226074</v>
       </c>
       <c r="D4" t="n">
-        <v>1.147307692307692</v>
+        <v>1.036153846153846</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>OutDeg_Var.Dep_ApoioSpecTubos</t>
+          <t>Indeg_Var.Dep_ApoioSpecTubos</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5795460131213728</v>
+        <v>-0.5245826771653543</v>
       </c>
       <c r="C5" t="n">
-        <v>11.32138599153084</v>
+        <v>1.070370173207525</v>
       </c>
       <c r="D5" t="n">
-        <v>2.475769230769231</v>
+        <v>0.8530769230769231</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>OutDeg_Var.Dep_RedApoiLevntDiCin</t>
+          <t>Indeg_Var.Dep_RedApoiLevntDiCin</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.2099671497584539</v>
+        <v>-0.358114681440443</v>
       </c>
       <c r="C6" t="n">
-        <v>1.054287947822167</v>
+        <v>0.8516251432498835</v>
       </c>
       <c r="D6" t="n">
-        <v>0.636923076923077</v>
+        <v>0.6019230769230769</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>OutDeg_RedCont_DiqPriqDiqCint</t>
+          <t>Indeg_RedCont_DiqPriqDiqCint</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8728967593920275</v>
+        <v>-0.1786891008174385</v>
       </c>
       <c r="C7" t="n">
-        <v>1.402463491914797</v>
+        <v>1.599887015241533</v>
       </c>
       <c r="D7" t="n">
-        <v>1.071153846153846</v>
+        <v>1.140769230769231</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>OutDeg_RedeRepar_DiqPriqDiqCint</t>
+          <t>Indeg_RedeRepar_DiqPriqDiqCint</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.749918497237569</v>
+        <v>0.08098405172413792</v>
       </c>
       <c r="C8" t="n">
-        <v>1.293828546482225</v>
+        <v>1.588463214750466</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9192307692307692</v>
+        <v>1.305384615384615</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>OutDeg_Red-Val_Cont1Rep2DiqCin</t>
+          <t>Indeg_Red-Val_Cont1Rep2DiqCin</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.08478880516684595</v>
+        <v>0.0521411111111113</v>
       </c>
       <c r="C9" t="n">
-        <v>2.507726521710912</v>
+        <v>2.131429639395189</v>
       </c>
       <c r="D9" t="n">
-        <v>1.449230769230769</v>
+        <v>1.547692307692308</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>OutDeg_Red-Val_Cont1Rep2DiqPrq</t>
+          <t>Indeg_Red-Val_Cont1Rep2DiqPrq</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8550759775659882</v>
+        <v>-0.1829304149377593</v>
       </c>
       <c r="C10" t="n">
-        <v>2.337983187410761</v>
+        <v>2.90422172813197</v>
       </c>
       <c r="D10" t="n">
-        <v>1.590384615384616</v>
+        <v>2.309615384615385</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>OutDeg_ContRep2_DiqPrqCin</t>
+          <t>Indeg_ContRep2_DiqPrqCin</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8124430431403031</v>
+        <v>0.06767802287581692</v>
       </c>
       <c r="C11" t="n">
-        <v>2.926872181908661</v>
+        <v>3.182555214337639</v>
       </c>
       <c r="D11" t="n">
-        <v>1.958846153846153</v>
+        <v>2.554230769230769</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>OutDeg_Var.Dep_RedePartilhaAgu</t>
+          <t>Indeg_Var.Dep_RedePartilhaAgu</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1678483333333333</v>
+        <v>-0.2919379032258065</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7686851911393396</v>
+        <v>0.6884514395477611</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5223076923076924</v>
+        <v>0.5226923076923077</v>
       </c>
     </row>
   </sheetData>
@@ -668,173 +668,173 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8213024840802212</v>
+        <v>0.845637390770564</v>
       </c>
       <c r="C2" t="n">
-        <v>2.248468729581752</v>
+        <v>2.08977076744439</v>
       </c>
       <c r="D2" t="n">
-        <v>1.568759689922481</v>
+        <v>1.453720930232558</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>OutDeg_Var.Dep_RedeControlExtAusencia</t>
+          <t>Indeg_Var.Dep_RedeControlExtAusencia</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8131247101602024</v>
+        <v>0.4919371966764233</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6528352000693685</v>
+        <v>0.8041785254377251</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4513178294573643</v>
+        <v>0.5113953488372093</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>OutDeg_Var.Dep_ApoioSpecDiqCint</t>
+          <t>Indeg_Var.Dep_ApoioSpecDiqCint</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.883785462513008</v>
+        <v>0.7468832603650174</v>
       </c>
       <c r="C4" t="n">
-        <v>1.209533832938647</v>
+        <v>0.7594199132569298</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5347286821705427</v>
+        <v>0.5537209302325582</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>OutDeg_Var.Dep_ApoioSpecTubos</t>
+          <t>Indeg_Var.Dep_ApoioSpecTubos</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6629772395568578</v>
+        <v>0.6369646095126249</v>
       </c>
       <c r="C5" t="n">
-        <v>5.205021353157132</v>
+        <v>0.6095258037412006</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6926356589147287</v>
+        <v>0.4047286821705426</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>OutDeg_Var.Dep_RedApoiLevntDiCin</t>
+          <t>Indeg_Var.Dep_RedApoiLevntDiCin</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7594915547798067</v>
+        <v>0.7618599167822468</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5682715531676162</v>
+        <v>0.6094603026162707</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3045736434108527</v>
+        <v>0.4316279069767441</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>OutDeg_RedCont_DiqPriqDiqCint</t>
+          <t>Indeg_RedCont_DiqPriqDiqCint</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9410272846027418</v>
+        <v>0.7444131770471418</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8637349040626551</v>
+        <v>0.9164686184928377</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5696899224806201</v>
+        <v>0.621860465116279</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>OutDeg_RedeRepar_DiqPriqDiqCint</t>
+          <t>Indeg_RedeRepar_DiqPriqDiqCint</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9260296981027558</v>
+        <v>0.6992539726387793</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7601055618243291</v>
+        <v>0.9079246289108726</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4506201550387596</v>
+        <v>0.655813953488372</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>OutDeg_Red-Val_Cont1Rep2DiqCin</t>
+          <t>Indeg_Red-Val_Cont1Rep2DiqCin</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.8104217832848758</v>
+        <v>0.7650139669575479</v>
       </c>
       <c r="C9" t="n">
-        <v>1.288934720293582</v>
+        <v>1.34863985458103</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6453488372093024</v>
+        <v>0.8604651162790697</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>OutDeg_Red-Val_Cont1Rep2DiqPrq</t>
+          <t>Indeg_Red-Val_Cont1Rep2DiqPrq</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9398598150760392</v>
+        <v>0.6970718068158903</v>
       </c>
       <c r="C10" t="n">
-        <v>1.451191971978512</v>
+        <v>1.645651304819543</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8789147286821705</v>
+        <v>1.154496124031008</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>OutDeg_ContRep2_DiqPrqCin</t>
+          <t>Indeg_ContRep2_DiqPrqCin</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9349691974758869</v>
+        <v>0.7216513645003397</v>
       </c>
       <c r="C11" t="n">
-        <v>1.667881960019395</v>
+        <v>1.843046433229169</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9867441860465116</v>
+        <v>1.325581395348837</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>OutDeg_Var.Dep_RedePartilhaAgu</t>
+          <t>Indeg_Var.Dep_RedePartilhaAgu</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.6763709446665265</v>
+        <v>0.7408473848777715</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4299648444255186</v>
+        <v>0.405412030813939</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2576744186046512</v>
+        <v>0.2748062015503876</v>
       </c>
     </row>
   </sheetData>

--- a/Results/random_forest_results.xlsx
+++ b/Results/random_forest_results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Random Forest Results Test Data" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Random Forest Results All Data" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Random Forest Results Test Data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Random Forest Results All Data" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -451,13 +451,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7100588532110093</v>
+        <v>0.7073658256880735</v>
       </c>
       <c r="C2" t="n">
-        <v>3.057805271256343</v>
+        <v>3.071973181974288</v>
       </c>
       <c r="D2" t="n">
-        <v>2.296538461538462</v>
+        <v>2.300384615384615</v>
       </c>
     </row>
     <row r="3">
@@ -467,13 +467,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.2826971556886226</v>
+        <v>-0.2100839820359279</v>
       </c>
       <c r="C3" t="n">
-        <v>1.592179203288567</v>
+        <v>1.546456246738628</v>
       </c>
       <c r="D3" t="n">
-        <v>1.238846153846154</v>
+        <v>1.227307692307692</v>
       </c>
     </row>
     <row r="4">
@@ -483,13 +483,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1120676012461059</v>
+        <v>0.08072788161993771</v>
       </c>
       <c r="C4" t="n">
-        <v>1.298670918226074</v>
+        <v>1.321390584544584</v>
       </c>
       <c r="D4" t="n">
-        <v>1.036153846153846</v>
+        <v>1.081923076923077</v>
       </c>
     </row>
     <row r="5">
@@ -499,13 +499,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.5245826771653543</v>
+        <v>-0.1974637795275591</v>
       </c>
       <c r="C5" t="n">
-        <v>1.070370173207525</v>
+        <v>0.9486143741105922</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8530769230769231</v>
+        <v>0.776923076923077</v>
       </c>
     </row>
     <row r="6">
@@ -515,13 +515,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.358114681440443</v>
+        <v>-0.9172011080332414</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8516251432498835</v>
+        <v>1.011845229879931</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6019230769230769</v>
+        <v>0.7276923076923077</v>
       </c>
     </row>
     <row r="7">
@@ -531,13 +531,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.1786891008174385</v>
+        <v>-0.3478591280653951</v>
       </c>
       <c r="C7" t="n">
-        <v>1.599887015241533</v>
+        <v>1.710849991176226</v>
       </c>
       <c r="D7" t="n">
-        <v>1.140769230769231</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="8">
@@ -547,13 +547,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.08098405172413792</v>
+        <v>-0.03465431034482758</v>
       </c>
       <c r="C8" t="n">
-        <v>1.588463214750466</v>
+        <v>1.685439910619092</v>
       </c>
       <c r="D8" t="n">
-        <v>1.305384615384615</v>
+        <v>1.386153846153846</v>
       </c>
     </row>
     <row r="9">
@@ -563,13 +563,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0521411111111113</v>
+        <v>-0.02941302469135798</v>
       </c>
       <c r="C9" t="n">
-        <v>2.131429639395189</v>
+        <v>2.221232332945628</v>
       </c>
       <c r="D9" t="n">
-        <v>1.547692307692308</v>
+        <v>1.541153846153846</v>
       </c>
     </row>
     <row r="10">
@@ -579,13 +579,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1829304149377593</v>
+        <v>-0.110563029045643</v>
       </c>
       <c r="C10" t="n">
-        <v>2.90422172813197</v>
+        <v>2.813984992579303</v>
       </c>
       <c r="D10" t="n">
-        <v>2.309615384615385</v>
+        <v>2.273461538461539</v>
       </c>
     </row>
     <row r="11">
@@ -595,13 +595,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.06767802287581692</v>
+        <v>-0.04271576797385634</v>
       </c>
       <c r="C11" t="n">
-        <v>3.182555214337639</v>
+        <v>3.365704292509279</v>
       </c>
       <c r="D11" t="n">
-        <v>2.554230769230769</v>
+        <v>2.639615384615385</v>
       </c>
     </row>
     <row r="12">
@@ -611,13 +611,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.2919379032258065</v>
+        <v>-0.3036064516129031</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6884514395477611</v>
+        <v>0.6915534352789766</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5226923076923077</v>
+        <v>0.5123076923076924</v>
       </c>
     </row>
   </sheetData>
@@ -668,13 +668,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.845637390770564</v>
+        <v>0.8346652475159198</v>
       </c>
       <c r="C2" t="n">
-        <v>2.08977076744439</v>
+        <v>2.162766674868669</v>
       </c>
       <c r="D2" t="n">
-        <v>1.453720930232558</v>
+        <v>1.554883720930232</v>
       </c>
     </row>
     <row r="3">
@@ -684,13 +684,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4919371966764233</v>
+        <v>0.5150289396657539</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8041785254377251</v>
+        <v>0.7856908282011315</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5113953488372093</v>
+        <v>0.5069767441860464</v>
       </c>
     </row>
     <row r="4">
@@ -700,13 +700,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7468832603650174</v>
+        <v>0.7399572845236839</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7594199132569298</v>
+        <v>0.7697397123743854</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5537209302325582</v>
+        <v>0.5717829457364341</v>
       </c>
     </row>
     <row r="5">
@@ -716,13 +716,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6369646095126249</v>
+        <v>0.6766697944803289</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6095258037412006</v>
+        <v>0.5752289736209601</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4047286821705426</v>
+        <v>0.4066666666666667</v>
       </c>
     </row>
     <row r="6">
@@ -732,13 +732,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7618599167822468</v>
+        <v>0.7170448913546001</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6094603026162707</v>
+        <v>0.6643362369003476</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4316279069767441</v>
+        <v>0.4772093023255814</v>
       </c>
     </row>
     <row r="7">
@@ -748,13 +748,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7444131770471418</v>
+        <v>0.7201339739604287</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9164686184928377</v>
+        <v>0.9590107144279446</v>
       </c>
       <c r="D7" t="n">
-        <v>0.621860465116279</v>
+        <v>0.6486046511627906</v>
       </c>
     </row>
     <row r="8">
@@ -764,13 +764,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.6992539726387793</v>
+        <v>0.676961227308603</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9079246289108726</v>
+        <v>0.9409730243519947</v>
       </c>
       <c r="D8" t="n">
-        <v>0.655813953488372</v>
+        <v>0.6664341085271318</v>
       </c>
     </row>
     <row r="9">
@@ -780,13 +780,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.7650139669575479</v>
+        <v>0.7517100532592156</v>
       </c>
       <c r="C9" t="n">
-        <v>1.34863985458103</v>
+        <v>1.38629141091222</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8604651162790697</v>
+        <v>0.8517054263565891</v>
       </c>
     </row>
     <row r="10">
@@ -796,13 +796,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6970718068158903</v>
+        <v>0.7137550090744103</v>
       </c>
       <c r="C10" t="n">
-        <v>1.645651304819543</v>
+        <v>1.599694011438612</v>
       </c>
       <c r="D10" t="n">
-        <v>1.154496124031008</v>
+        <v>1.130930232558139</v>
       </c>
     </row>
     <row r="11">
@@ -812,13 +812,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7216513645003397</v>
+        <v>0.7041206457617271</v>
       </c>
       <c r="C11" t="n">
-        <v>1.843046433229169</v>
+        <v>1.900198887999224</v>
       </c>
       <c r="D11" t="n">
-        <v>1.325581395348837</v>
+        <v>1.324883720930232</v>
       </c>
     </row>
     <row r="12">
@@ -828,13 +828,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.7408473848777715</v>
+        <v>0.7483131040363843</v>
       </c>
       <c r="C12" t="n">
-        <v>0.405412030813939</v>
+        <v>0.3995297623553869</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2748062015503876</v>
+        <v>0.2611627906976744</v>
       </c>
     </row>
   </sheetData>

--- a/Results/random_forest_results.xlsx
+++ b/Results/random_forest_results.xlsx
@@ -451,13 +451,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7073658256880735</v>
+        <v>0.6704556055045872</v>
       </c>
       <c r="C2" t="n">
-        <v>3.071973181974288</v>
+        <v>3.259956936950124</v>
       </c>
       <c r="D2" t="n">
-        <v>2.300384615384615</v>
+        <v>2.460384615384616</v>
       </c>
     </row>
     <row r="3">
@@ -467,13 +467,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.2100839820359279</v>
+        <v>-0.1708523952095808</v>
       </c>
       <c r="C3" t="n">
-        <v>1.546456246738628</v>
+        <v>1.52118122118711</v>
       </c>
       <c r="D3" t="n">
-        <v>1.227307692307692</v>
+        <v>1.185384615384615</v>
       </c>
     </row>
     <row r="4">
@@ -483,13 +483,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.08072788161993771</v>
+        <v>0.1292288161993769</v>
       </c>
       <c r="C4" t="n">
-        <v>1.321390584544584</v>
+        <v>1.286059874189379</v>
       </c>
       <c r="D4" t="n">
-        <v>1.081923076923077</v>
+        <v>1.047307692307692</v>
       </c>
     </row>
     <row r="5">
@@ -499,13 +499,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1974637795275591</v>
+        <v>-0.2496838582677166</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9486143741105922</v>
+        <v>0.9690776741115948</v>
       </c>
       <c r="D5" t="n">
-        <v>0.776923076923077</v>
+        <v>0.7988461538461539</v>
       </c>
     </row>
     <row r="6">
@@ -515,13 +515,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.9172011080332414</v>
+        <v>-0.8618880886426592</v>
       </c>
       <c r="C6" t="n">
-        <v>1.011845229879931</v>
+        <v>0.9971420699641088</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7276923076923077</v>
+        <v>0.6723076923076923</v>
       </c>
     </row>
     <row r="7">
@@ -531,13 +531,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.3478591280653951</v>
+        <v>-0.3867564032697548</v>
       </c>
       <c r="C7" t="n">
-        <v>1.710849991176226</v>
+        <v>1.735360747244481</v>
       </c>
       <c r="D7" t="n">
-        <v>1.29</v>
+        <v>1.322307692307693</v>
       </c>
     </row>
     <row r="8">
@@ -547,13 +547,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03465431034482758</v>
+        <v>-0.004566594827586146</v>
       </c>
       <c r="C8" t="n">
-        <v>1.685439910619092</v>
+        <v>1.660752841334315</v>
       </c>
       <c r="D8" t="n">
-        <v>1.386153846153846</v>
+        <v>1.364615384615385</v>
       </c>
     </row>
     <row r="9">
@@ -563,13 +563,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.02941302469135798</v>
+        <v>-0.209511172839506</v>
       </c>
       <c r="C9" t="n">
-        <v>2.221232332945628</v>
+        <v>2.407709572314606</v>
       </c>
       <c r="D9" t="n">
-        <v>1.541153846153846</v>
+        <v>1.694230769230769</v>
       </c>
     </row>
     <row r="10">
@@ -579,13 +579,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.110563029045643</v>
+        <v>-0.129010622406639</v>
       </c>
       <c r="C10" t="n">
-        <v>2.813984992579303</v>
+        <v>2.837260325357219</v>
       </c>
       <c r="D10" t="n">
-        <v>2.273461538461539</v>
+        <v>2.29076923076923</v>
       </c>
     </row>
     <row r="11">
@@ -595,13 +595,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.04271576797385634</v>
+        <v>-0.002987527233115461</v>
       </c>
       <c r="C11" t="n">
-        <v>3.365704292509279</v>
+        <v>3.300963728740675</v>
       </c>
       <c r="D11" t="n">
-        <v>2.639615384615385</v>
+        <v>2.623076923076923</v>
       </c>
     </row>
     <row r="12">
@@ -611,13 +611,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.3036064516129031</v>
+        <v>-0.2078572580645162</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6915534352789766</v>
+        <v>0.6656720144104232</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5123076923076924</v>
+        <v>0.5126923076923077</v>
       </c>
     </row>
   </sheetData>
@@ -668,13 +668,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8346652475159198</v>
+        <v>0.8304783467644298</v>
       </c>
       <c r="C2" t="n">
-        <v>2.162766674868669</v>
+        <v>2.189980177603116</v>
       </c>
       <c r="D2" t="n">
-        <v>1.554883720930232</v>
+        <v>1.534651162790698</v>
       </c>
     </row>
     <row r="3">
@@ -684,13 +684,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5150289396657539</v>
+        <v>0.5247931592861863</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7856908282011315</v>
+        <v>0.7777412136108238</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5069767441860464</v>
+        <v>0.5036434108527131</v>
       </c>
     </row>
     <row r="4">
@@ -700,13 +700,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7399572845236839</v>
+        <v>0.7432778879628653</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7697397123743854</v>
+        <v>0.7648093444338486</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5717829457364341</v>
+        <v>0.5640310077519379</v>
       </c>
     </row>
     <row r="5">
@@ -716,13 +716,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6766697944803289</v>
+        <v>0.6673663417498532</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5752289736209601</v>
+        <v>0.5834460577684808</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4066666666666667</v>
+        <v>0.4094573643410853</v>
       </c>
     </row>
     <row r="6">
@@ -732,13 +732,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7170448913546001</v>
+        <v>0.7326207119741101</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6643362369003476</v>
+        <v>0.6457925843608796</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4772093023255814</v>
+        <v>0.4362790697674419</v>
       </c>
     </row>
     <row r="7">
@@ -748,13 +748,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7201339739604287</v>
+        <v>0.7150908349486158</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9590107144279446</v>
+        <v>0.9676127420640197</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6486046511627906</v>
+        <v>0.6696124031007753</v>
       </c>
     </row>
     <row r="8">
@@ -764,13 +764,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.676961227308603</v>
+        <v>0.6854602604577744</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9409730243519947</v>
+        <v>0.9285121882457603</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6664341085271318</v>
+        <v>0.6550387596899225</v>
       </c>
     </row>
     <row r="9">
@@ -780,13 +780,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.7517100532592156</v>
+        <v>0.7298650624204217</v>
       </c>
       <c r="C9" t="n">
-        <v>1.38629141091222</v>
+        <v>1.445990178700818</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8517054263565891</v>
+        <v>0.8893798449612403</v>
       </c>
     </row>
     <row r="10">
@@ -796,13 +796,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.7137550090744103</v>
+        <v>0.705503413994757</v>
       </c>
       <c r="C10" t="n">
-        <v>1.599694011438612</v>
+        <v>1.622587415975059</v>
       </c>
       <c r="D10" t="n">
-        <v>1.130930232558139</v>
+        <v>1.141782945736434</v>
       </c>
     </row>
     <row r="11">
@@ -812,13 +812,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7041206457617271</v>
+        <v>0.710702454721831</v>
       </c>
       <c r="C11" t="n">
-        <v>1.900198887999224</v>
+        <v>1.878945151866049</v>
       </c>
       <c r="D11" t="n">
-        <v>1.324883720930232</v>
+        <v>1.331860465116279</v>
       </c>
     </row>
     <row r="12">
@@ -828,13 +828,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.7483131040363843</v>
+        <v>0.755445139283684</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3995297623553869</v>
+        <v>0.393828357528757</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2611627906976744</v>
+        <v>0.2609302325581395</v>
       </c>
     </row>
   </sheetData>

--- a/Results/random_forest_results.xlsx
+++ b/Results/random_forest_results.xlsx
@@ -451,13 +451,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6704556055045872</v>
+        <v>0.6701896422018349</v>
       </c>
       <c r="C2" t="n">
-        <v>3.259956936950124</v>
+        <v>3.261272168011458</v>
       </c>
       <c r="D2" t="n">
-        <v>2.460384615384616</v>
+        <v>2.456538461538461</v>
       </c>
     </row>
     <row r="3">
@@ -467,13 +467,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.1708523952095808</v>
+        <v>-0.1707453592814372</v>
       </c>
       <c r="C3" t="n">
-        <v>1.52118122118711</v>
+        <v>1.521111688611579</v>
       </c>
       <c r="D3" t="n">
-        <v>1.185384615384615</v>
+        <v>1.178076923076923</v>
       </c>
     </row>
     <row r="4">
@@ -483,13 +483,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1292288161993769</v>
+        <v>0.1589526479750781</v>
       </c>
       <c r="C4" t="n">
-        <v>1.286059874189379</v>
+        <v>1.263919422942898</v>
       </c>
       <c r="D4" t="n">
-        <v>1.047307692307692</v>
+        <v>1.025384615384615</v>
       </c>
     </row>
     <row r="5">
@@ -499,13 +499,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.2496838582677166</v>
+        <v>-0.2502826771653544</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9690776741115948</v>
+        <v>0.9693098258356502</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7988461538461539</v>
+        <v>0.8030769230769229</v>
       </c>
     </row>
     <row r="6">
@@ -515,13 +515,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.8618880886426592</v>
+        <v>-0.8502637119113576</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9971420699641088</v>
+        <v>0.9940244541180139</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6723076923076923</v>
+        <v>0.6646153846153846</v>
       </c>
     </row>
     <row r="7">
@@ -531,13 +531,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.3867564032697548</v>
+        <v>-0.3701291553133514</v>
       </c>
       <c r="C7" t="n">
-        <v>1.735360747244481</v>
+        <v>1.724925862397927</v>
       </c>
       <c r="D7" t="n">
-        <v>1.322307692307693</v>
+        <v>1.295384615384615</v>
       </c>
     </row>
     <row r="8">
@@ -547,13 +547,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.004566594827586146</v>
+        <v>0.004211206896551745</v>
       </c>
       <c r="C8" t="n">
-        <v>1.660752841334315</v>
+        <v>1.653481176185565</v>
       </c>
       <c r="D8" t="n">
-        <v>1.364615384615385</v>
+        <v>1.351538461538462</v>
       </c>
     </row>
     <row r="9">
@@ -563,13 +563,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.209511172839506</v>
+        <v>-0.1911081481481482</v>
       </c>
       <c r="C9" t="n">
-        <v>2.407709572314606</v>
+        <v>2.389322401531769</v>
       </c>
       <c r="D9" t="n">
-        <v>1.694230769230769</v>
+        <v>1.682307692307692</v>
       </c>
     </row>
     <row r="10">
@@ -579,13 +579,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.129010622406639</v>
+        <v>-0.106500124481328</v>
       </c>
       <c r="C10" t="n">
-        <v>2.837260325357219</v>
+        <v>2.808832908467912</v>
       </c>
       <c r="D10" t="n">
-        <v>2.29076923076923</v>
+        <v>2.285769230769231</v>
       </c>
     </row>
     <row r="11">
@@ -595,13 +595,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.002987527233115461</v>
+        <v>-0.06976299019607857</v>
       </c>
       <c r="C11" t="n">
-        <v>3.300963728740675</v>
+        <v>3.409076685285012</v>
       </c>
       <c r="D11" t="n">
-        <v>2.623076923076923</v>
+        <v>2.704230769230769</v>
       </c>
     </row>
     <row r="12">
@@ -611,13 +611,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.2078572580645162</v>
+        <v>-0.1954024193548387</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6656720144104232</v>
+        <v>0.6622310774948575</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5126923076923077</v>
+        <v>0.4996153846153846</v>
       </c>
     </row>
   </sheetData>
@@ -668,13 +668,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8304783467644298</v>
+        <v>0.8295112262583952</v>
       </c>
       <c r="C2" t="n">
-        <v>2.189980177603116</v>
+        <v>2.196218208331005</v>
       </c>
       <c r="D2" t="n">
-        <v>1.534651162790698</v>
+        <v>1.545968992248062</v>
       </c>
     </row>
     <row r="3">
@@ -684,13 +684,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5247931592861863</v>
+        <v>0.5228814842791049</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7777412136108238</v>
+        <v>0.779304002737167</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5036434108527131</v>
+        <v>0.5034108527131783</v>
       </c>
     </row>
     <row r="4">
@@ -700,13 +700,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7432778879628653</v>
+        <v>0.7499874802194324</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7648093444338486</v>
+        <v>0.7547487902833024</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5640310077519379</v>
+        <v>0.5554263565891473</v>
       </c>
     </row>
     <row r="5">
@@ -716,13 +716,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6673663417498532</v>
+        <v>0.6630191250733999</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5834460577684808</v>
+        <v>0.5872462341598145</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4094573643410853</v>
+        <v>0.4095348837209302</v>
       </c>
     </row>
     <row r="6">
@@ -732,13 +732,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7326207119741101</v>
+        <v>0.7352811257512714</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6457925843608796</v>
+        <v>0.6425717466652289</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4362790697674419</v>
+        <v>0.4295348837209302</v>
       </c>
     </row>
     <row r="7">
@@ -748,13 +748,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7150908349486158</v>
+        <v>0.7174148447500275</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9676127420640197</v>
+        <v>0.9636582430002483</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6696124031007753</v>
+        <v>0.6631007751937984</v>
       </c>
     </row>
     <row r="8">
@@ -764,13 +764,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.6854602604577744</v>
+        <v>0.6898612273086031</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9285121882457603</v>
+        <v>0.921993542831649</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6550387596899225</v>
+        <v>0.6507751937984495</v>
       </c>
     </row>
     <row r="9">
@@ -780,13 +780,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.7298650624204217</v>
+        <v>0.7358651788764324</v>
       </c>
       <c r="C9" t="n">
-        <v>1.445990178700818</v>
+        <v>1.429841157763375</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8893798449612403</v>
+        <v>0.8715503875968993</v>
       </c>
     </row>
     <row r="10">
@@ -796,13 +796,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.705503413994757</v>
+        <v>0.7096499354708612</v>
       </c>
       <c r="C10" t="n">
-        <v>1.622587415975059</v>
+        <v>1.611123879482506</v>
       </c>
       <c r="D10" t="n">
-        <v>1.141782945736434</v>
+        <v>1.145348837209302</v>
       </c>
     </row>
     <row r="11">
@@ -812,13 +812,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.710702454721831</v>
+        <v>0.6957884773338323</v>
       </c>
       <c r="C11" t="n">
-        <v>1.878945151866049</v>
+        <v>1.926768592566924</v>
       </c>
       <c r="D11" t="n">
-        <v>1.331860465116279</v>
+        <v>1.353953488372093</v>
       </c>
     </row>
     <row r="12">
@@ -828,13 +828,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.755445139283684</v>
+        <v>0.7587171972711768</v>
       </c>
       <c r="C12" t="n">
-        <v>0.393828357528757</v>
+        <v>0.3911848430030857</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2609302325581395</v>
+        <v>0.2552713178294574</v>
       </c>
     </row>
   </sheetData>

--- a/Results/random_forest_results.xlsx
+++ b/Results/random_forest_results.xlsx
@@ -451,173 +451,173 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6701896422018349</v>
+        <v>0.5388741376146789</v>
       </c>
       <c r="C2" t="n">
-        <v>3.261272168011458</v>
+        <v>3.856245184512639</v>
       </c>
       <c r="D2" t="n">
-        <v>2.456538461538461</v>
+        <v>2.851153846153846</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Indeg_Var.Dep_RedeControlExtAusencia</t>
+          <t>OutDeg_Var.Dep_RedeControlExtAusencia</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.1707453592814372</v>
+        <v>0.4260617629889084</v>
       </c>
       <c r="C3" t="n">
-        <v>1.521111688611579</v>
+        <v>1.205973912206677</v>
       </c>
       <c r="D3" t="n">
-        <v>1.178076923076923</v>
+        <v>0.9973076923076923</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Indeg_Var.Dep_ApoioSpecDiqCint</t>
+          <t>OutDeg_Var.Dep_ApoioSpecDiqCint</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1589526479750781</v>
+        <v>0.6320215005318817</v>
       </c>
       <c r="C4" t="n">
-        <v>1.263919422942898</v>
+        <v>2.949441928960069</v>
       </c>
       <c r="D4" t="n">
-        <v>1.025384615384615</v>
+        <v>1.446923076923077</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Indeg_Var.Dep_ApoioSpecTubos</t>
+          <t>OutDeg_Var.Dep_ApoioSpecTubos</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.2502826771653544</v>
+        <v>0.1872776684330054</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9693098258356502</v>
+        <v>15.74024386479056</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8030769230769229</v>
+        <v>3.778461538461538</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Indeg_Var.Dep_RedApoiLevntDiCin</t>
+          <t>OutDeg_Var.Dep_RedApoiLevntDiCin</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.8502637119113576</v>
+        <v>0.094672463768116</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9940244541180139</v>
+        <v>0.9119590071758877</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6646153846153846</v>
+        <v>0.6038461538461538</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Indeg_RedCont_DiqPriqDiqCint</t>
+          <t>OutDeg_RedCont_DiqPriqDiqCint</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.3701291553133514</v>
+        <v>0.7113870758053724</v>
       </c>
       <c r="C7" t="n">
-        <v>1.724925862397927</v>
+        <v>2.113348600608122</v>
       </c>
       <c r="D7" t="n">
-        <v>1.295384615384615</v>
+        <v>1.515</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Indeg_RedeRepar_DiqPriqDiqCint</t>
+          <t>OutDeg_RedeRepar_DiqPriqDiqCint</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.004211206896551745</v>
+        <v>0.4282970607734806</v>
       </c>
       <c r="C8" t="n">
-        <v>1.653481176185565</v>
+        <v>1.95623559223006</v>
       </c>
       <c r="D8" t="n">
-        <v>1.351538461538462</v>
+        <v>1.428076923076923</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Indeg_Red-Val_Cont1Rep2DiqCin</t>
+          <t>OutDeg_Red-Val_Cont1Rep2DiqCin</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.1911081481481482</v>
+        <v>0.0514886544671691</v>
       </c>
       <c r="C9" t="n">
-        <v>2.389322401531769</v>
+        <v>2.552940988802462</v>
       </c>
       <c r="D9" t="n">
-        <v>1.682307692307692</v>
+        <v>1.673076923076923</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Indeg_Red-Val_Cont1Rep2DiqPrq</t>
+          <t>OutDeg_Red-Val_Cont1Rep2DiqPrq</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.106500124481328</v>
+        <v>0.584054759383457</v>
       </c>
       <c r="C10" t="n">
-        <v>2.808832908467912</v>
+        <v>3.960858007281522</v>
       </c>
       <c r="D10" t="n">
-        <v>2.285769230769231</v>
+        <v>2.860384615384616</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Indeg_ContRep2_DiqPrqCin</t>
+          <t>OutDeg_ContRep2_DiqPrqCin</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.06976299019607857</v>
+        <v>0.6012632724446172</v>
       </c>
       <c r="C11" t="n">
-        <v>3.409076685285012</v>
+        <v>4.267566411542189</v>
       </c>
       <c r="D11" t="n">
-        <v>2.704230769230769</v>
+        <v>3.155384615384615</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Indeg_Var.Dep_RedePartilhaAgu</t>
+          <t>OutDeg_Var.Dep_RedePartilhaAgu</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.1954024193548387</v>
+        <v>-0.1793870833333333</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6622310774948575</v>
+        <v>0.9151145367573479</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4996153846153846</v>
+        <v>0.655</v>
       </c>
     </row>
   </sheetData>
@@ -668,173 +668,173 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8295112262583952</v>
+        <v>0.7983547168849485</v>
       </c>
       <c r="C2" t="n">
-        <v>2.196218208331005</v>
+        <v>2.388480104439291</v>
       </c>
       <c r="D2" t="n">
-        <v>1.545968992248062</v>
+        <v>1.612558139534884</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Indeg_Var.Dep_RedeControlExtAusencia</t>
+          <t>OutDeg_Var.Dep_RedeControlExtAusencia</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5228814842791049</v>
+        <v>0.7961400953836425</v>
       </c>
       <c r="C3" t="n">
-        <v>0.779304002737167</v>
+        <v>0.6818573585174109</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5034108527131783</v>
+        <v>0.5025581395348837</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Indeg_Var.Dep_ApoioSpecDiqCint</t>
+          <t>OutDeg_Var.Dep_ApoioSpecDiqCint</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7499874802194324</v>
+        <v>0.8231424815978156</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7547487902833024</v>
+        <v>1.492105582647368</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5554263565891473</v>
+        <v>0.6656589147286822</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Indeg_Var.Dep_ApoioSpecTubos</t>
+          <t>OutDeg_Var.Dep_ApoioSpecTubos</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6630191250733999</v>
+        <v>0.3459148404748377</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5872462341598145</v>
+        <v>7.251202733703652</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4095348837209302</v>
+        <v>1.21968992248062</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Indeg_Var.Dep_RedApoiLevntDiCin</t>
+          <t>OutDeg_Var.Dep_RedApoiLevntDiCin</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7352811257512714</v>
+        <v>0.7933523227712138</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6425717466652289</v>
+        <v>0.5267517839176865</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4295348837209302</v>
+        <v>0.3326356589147287</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Indeg_RedCont_DiqPriqDiqCint</t>
+          <t>OutDeg_RedCont_DiqPriqDiqCint</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7174148447500275</v>
+        <v>0.888971319317113</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9636582430002483</v>
+        <v>1.18514775188516</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6631007751937984</v>
+        <v>0.6989147286821706</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Indeg_RedeRepar_DiqPriqDiqCint</t>
+          <t>OutDeg_RedeRepar_DiqPriqDiqCint</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.6898612273086031</v>
+        <v>0.8652813553062826</v>
       </c>
       <c r="C8" t="n">
-        <v>0.921993542831649</v>
+        <v>1.025791432024807</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6507751937984495</v>
+        <v>0.6034108527131782</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Indeg_Red-Val_Cont1Rep2DiqCin</t>
+          <t>OutDeg_Red-Val_Cont1Rep2DiqCin</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.7358651788764324</v>
+        <v>0.8073187668001536</v>
       </c>
       <c r="C9" t="n">
-        <v>1.429841157763375</v>
+        <v>1.29944054747961</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8715503875968993</v>
+        <v>0.6992248062015503</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Indeg_Red-Val_Cont1Rep2DiqPrq</t>
+          <t>OutDeg_Red-Val_Cont1Rep2DiqPrq</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.7096499354708612</v>
+        <v>0.864793267161582</v>
       </c>
       <c r="C10" t="n">
-        <v>1.611123879482506</v>
+        <v>2.175913601225931</v>
       </c>
       <c r="D10" t="n">
-        <v>1.145348837209302</v>
+        <v>1.285271317829457</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Indeg_ContRep2_DiqPrqCin</t>
+          <t>OutDeg_ContRep2_DiqPrqCin</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6957884773338323</v>
+        <v>0.8791652726542241</v>
       </c>
       <c r="C11" t="n">
-        <v>1.926768592566924</v>
+        <v>2.273534965710903</v>
       </c>
       <c r="D11" t="n">
-        <v>1.353953488372093</v>
+        <v>1.352403100775194</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Indeg_Var.Dep_RedePartilhaAgu</t>
+          <t>OutDeg_Var.Dep_RedePartilhaAgu</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.7587171972711768</v>
+        <v>0.5994635493372606</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3911848430030857</v>
+        <v>0.4783328606539544</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2552713178294574</v>
+        <v>0.2893798449612403</v>
       </c>
     </row>
   </sheetData>

--- a/Results/random_forest_results.xlsx
+++ b/Results/random_forest_results.xlsx
@@ -451,13 +451,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5388741376146789</v>
+        <v>0.509164366972477</v>
       </c>
       <c r="C2" t="n">
-        <v>3.856245184512639</v>
+        <v>3.978532779420458</v>
       </c>
       <c r="D2" t="n">
-        <v>2.851153846153846</v>
+        <v>3.082307692307692</v>
       </c>
     </row>
     <row r="3">
@@ -467,13 +467,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4260617629889084</v>
+        <v>0.4739682428488033</v>
       </c>
       <c r="C3" t="n">
-        <v>1.205973912206677</v>
+        <v>1.154546197896352</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9973076923076923</v>
+        <v>0.8338461538461538</v>
       </c>
     </row>
     <row r="4">
@@ -483,13 +483,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6320215005318817</v>
+        <v>0.7344474438395594</v>
       </c>
       <c r="C4" t="n">
-        <v>2.949441928960069</v>
+        <v>2.505554598517831</v>
       </c>
       <c r="D4" t="n">
-        <v>1.446923076923077</v>
+        <v>1.156538461538462</v>
       </c>
     </row>
     <row r="5">
@@ -499,13 +499,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1872776684330054</v>
+        <v>0.5818976532929599</v>
       </c>
       <c r="C5" t="n">
-        <v>15.74024386479056</v>
+        <v>11.28968078856494</v>
       </c>
       <c r="D5" t="n">
-        <v>3.778461538461538</v>
+        <v>2.467692307692308</v>
       </c>
     </row>
     <row r="6">
@@ -515,13 +515,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.094672463768116</v>
+        <v>-0.1849552334943638</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9119590071758877</v>
+        <v>1.043334152535109</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6038461538461538</v>
+        <v>0.643076923076923</v>
       </c>
     </row>
     <row r="7">
@@ -531,13 +531,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7113870758053724</v>
+        <v>0.877301175795813</v>
       </c>
       <c r="C7" t="n">
-        <v>2.113348600608122</v>
+        <v>1.377949982345569</v>
       </c>
       <c r="D7" t="n">
-        <v>1.515</v>
+        <v>0.9638461538461539</v>
       </c>
     </row>
     <row r="8">
@@ -547,13 +547,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.4282970607734806</v>
+        <v>0.745036817679558</v>
       </c>
       <c r="C8" t="n">
-        <v>1.95623559223006</v>
+        <v>1.306395510850076</v>
       </c>
       <c r="D8" t="n">
-        <v>1.428076923076923</v>
+        <v>0.9000000000000001</v>
       </c>
     </row>
     <row r="9">
@@ -563,13 +563,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0514886544671691</v>
+        <v>0.0351928955866524</v>
       </c>
       <c r="C9" t="n">
-        <v>2.552940988802462</v>
+        <v>2.574777809681986</v>
       </c>
       <c r="D9" t="n">
-        <v>1.673076923076923</v>
+        <v>1.448076923076923</v>
       </c>
     </row>
     <row r="10">
@@ -579,13 +579,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.584054759383457</v>
+        <v>0.869098254696631</v>
       </c>
       <c r="C10" t="n">
-        <v>3.960858007281522</v>
+        <v>2.221999273004104</v>
       </c>
       <c r="D10" t="n">
-        <v>2.860384615384616</v>
+        <v>1.487307692307692</v>
       </c>
     </row>
     <row r="11">
@@ -595,13 +595,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6012632724446172</v>
+        <v>0.8191407630522088</v>
       </c>
       <c r="C11" t="n">
-        <v>4.267566411542189</v>
+        <v>2.874137328767605</v>
       </c>
       <c r="D11" t="n">
-        <v>3.155384615384615</v>
+        <v>1.878076923076923</v>
       </c>
     </row>
     <row r="12">
@@ -611,13 +611,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.1793870833333333</v>
+        <v>0.1730266666666666</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9151145367573479</v>
+        <v>0.7662897624267208</v>
       </c>
       <c r="D12" t="n">
-        <v>0.655</v>
+        <v>0.533076923076923</v>
       </c>
     </row>
   </sheetData>
@@ -668,13 +668,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7983547168849485</v>
+        <v>0.7897476841447925</v>
       </c>
       <c r="C2" t="n">
-        <v>2.388480104439291</v>
+        <v>2.438922433301009</v>
       </c>
       <c r="D2" t="n">
-        <v>1.612558139534884</v>
+        <v>1.694728682170543</v>
       </c>
     </row>
     <row r="3">
@@ -684,13 +684,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7961400953836425</v>
+        <v>0.8133578836424958</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6818573585174109</v>
+        <v>0.6524277856620424</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5025581395348837</v>
+        <v>0.4417054263565892</v>
       </c>
     </row>
     <row r="4">
@@ -700,13 +700,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8231424815978156</v>
+        <v>0.8700283403186847</v>
       </c>
       <c r="C4" t="n">
-        <v>1.492105582647368</v>
+        <v>1.279122458393211</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6656589147286822</v>
+        <v>0.5341860465116279</v>
       </c>
     </row>
     <row r="5">
@@ -716,13 +716,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3459148404748377</v>
+        <v>0.6637258951051042</v>
       </c>
       <c r="C5" t="n">
-        <v>7.251202733703652</v>
+        <v>5.199236974429908</v>
       </c>
       <c r="D5" t="n">
-        <v>1.21968992248062</v>
+        <v>0.6913178294573643</v>
       </c>
     </row>
     <row r="6">
@@ -732,13 +732,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7933523227712138</v>
+        <v>0.7641246777658431</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5267517839176865</v>
+        <v>0.5627713815635766</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3326356589147287</v>
+        <v>0.3071317829457365</v>
       </c>
     </row>
     <row r="7">
@@ -748,13 +748,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.888971319317113</v>
+        <v>0.942346464910364</v>
       </c>
       <c r="C7" t="n">
-        <v>1.18514775188516</v>
+        <v>0.8540196791661775</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6989147286821706</v>
+        <v>0.5382170542635659</v>
       </c>
     </row>
     <row r="8">
@@ -764,13 +764,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.8652813553062826</v>
+        <v>0.9287824285648341</v>
       </c>
       <c r="C8" t="n">
-        <v>1.025791432024807</v>
+        <v>0.7458281906193145</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6034108527131782</v>
+        <v>0.4374418604651162</v>
       </c>
     </row>
     <row r="9">
@@ -780,13 +780,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.8073187668001536</v>
+        <v>0.7992659087168797</v>
       </c>
       <c r="C9" t="n">
-        <v>1.29944054747961</v>
+        <v>1.326316809465132</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6992248062015503</v>
+        <v>0.6463565891472868</v>
       </c>
     </row>
     <row r="10">
@@ -796,13 +796,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.864793267161582</v>
+        <v>0.9445433886595072</v>
       </c>
       <c r="C10" t="n">
-        <v>2.175913601225931</v>
+        <v>1.393539078314884</v>
       </c>
       <c r="D10" t="n">
-        <v>1.285271317829457</v>
+        <v>0.8410077519379845</v>
       </c>
     </row>
     <row r="11">
@@ -812,13 +812,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8791652726542241</v>
+        <v>0.9375235407822391</v>
       </c>
       <c r="C11" t="n">
-        <v>2.273534965710903</v>
+        <v>1.634797476967002</v>
       </c>
       <c r="D11" t="n">
-        <v>1.352403100775194</v>
+        <v>0.9520930232558139</v>
       </c>
     </row>
     <row r="12">
@@ -828,13 +828,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.5994635493372606</v>
+        <v>0.6833515463917527</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4783328606539544</v>
+        <v>0.4253024459636174</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2893798449612403</v>
+        <v>0.2576744186046512</v>
       </c>
     </row>
   </sheetData>

--- a/Results/random_forest_results.xlsx
+++ b/Results/random_forest_results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Random Forest Results Test Data" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Random Forest Results All Data" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Random Forest Results Test Data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Random Forest Results All Data" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -451,13 +451,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.509164366972477</v>
+        <v>-0.1243282568807338</v>
       </c>
       <c r="C2" t="n">
-        <v>3.978532779420458</v>
+        <v>6.02145522917202</v>
       </c>
       <c r="D2" t="n">
-        <v>3.082307692307692</v>
+        <v>5.09</v>
       </c>
     </row>
     <row r="3">
@@ -467,13 +467,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4739682428488033</v>
+        <v>0.1097633391710451</v>
       </c>
       <c r="C3" t="n">
-        <v>1.154546197896352</v>
+        <v>1.501958977213016</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8338461538461538</v>
+        <v>1.248076923076923</v>
       </c>
     </row>
     <row r="4">
@@ -483,13 +483,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7344474438395594</v>
+        <v>-0.1165035479632059</v>
       </c>
       <c r="C4" t="n">
-        <v>2.505554598517831</v>
+        <v>5.137580993185261</v>
       </c>
       <c r="D4" t="n">
-        <v>1.156538461538462</v>
+        <v>2.752307692307693</v>
       </c>
     </row>
     <row r="5">
@@ -499,13 +499,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5818976532929599</v>
+        <v>-0.09868936411809215</v>
       </c>
       <c r="C5" t="n">
-        <v>11.28968078856494</v>
+        <v>18.30112638399825</v>
       </c>
       <c r="D5" t="n">
-        <v>2.467692307692308</v>
+        <v>5.739615384615385</v>
       </c>
     </row>
     <row r="6">
@@ -515,13 +515,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.1849552334943638</v>
+        <v>-0.2827671497584539</v>
       </c>
       <c r="C6" t="n">
-        <v>1.043334152535109</v>
+        <v>1.085541339608953</v>
       </c>
       <c r="D6" t="n">
-        <v>0.643076923076923</v>
+        <v>0.7900000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -531,13 +531,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.877301175795813</v>
+        <v>-0.2692361915686836</v>
       </c>
       <c r="C7" t="n">
-        <v>1.377949982345569</v>
+        <v>4.431844120418983</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9638461538461539</v>
+        <v>3.153461538461539</v>
       </c>
     </row>
     <row r="8">
@@ -547,13 +547,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.745036817679558</v>
+        <v>-0.2301131491712709</v>
       </c>
       <c r="C8" t="n">
-        <v>1.306395510850076</v>
+        <v>2.869514834360573</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9000000000000001</v>
+        <v>2.196153846153846</v>
       </c>
     </row>
     <row r="9">
@@ -563,13 +563,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0351928955866524</v>
+        <v>-0.4672496878363834</v>
       </c>
       <c r="C9" t="n">
-        <v>2.574777809681986</v>
+        <v>3.175203203673016</v>
       </c>
       <c r="D9" t="n">
-        <v>1.448076923076923</v>
+        <v>2.286153846153846</v>
       </c>
     </row>
     <row r="10">
@@ -579,13 +579,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.869098254696631</v>
+        <v>-0.2236697023179193</v>
       </c>
       <c r="C10" t="n">
-        <v>2.221999273004104</v>
+        <v>6.793652014366624</v>
       </c>
       <c r="D10" t="n">
-        <v>1.487307692307692</v>
+        <v>4.907692307692309</v>
       </c>
     </row>
     <row r="11">
@@ -595,13 +595,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8191407630522088</v>
+        <v>-0.258240847260008</v>
       </c>
       <c r="C11" t="n">
-        <v>2.874137328767605</v>
+        <v>7.580870155047658</v>
       </c>
       <c r="D11" t="n">
-        <v>1.878076923076923</v>
+        <v>5.453076923076924</v>
       </c>
     </row>
     <row r="12">
@@ -611,13 +611,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1730266666666666</v>
+        <v>0.04222499999999985</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7662897624267208</v>
+        <v>0.8246677652709139</v>
       </c>
       <c r="D12" t="n">
-        <v>0.533076923076923</v>
+        <v>0.6446153846153846</v>
       </c>
     </row>
   </sheetData>
@@ -668,13 +668,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7897476841447925</v>
+        <v>0.6295160157859634</v>
       </c>
       <c r="C2" t="n">
-        <v>2.438922433301009</v>
+        <v>3.23751890838811</v>
       </c>
       <c r="D2" t="n">
-        <v>1.694728682170543</v>
+        <v>2.303720930232558</v>
       </c>
     </row>
     <row r="3">
@@ -684,13 +684,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8133578836424958</v>
+        <v>0.7027031302698145</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6524277856620424</v>
+        <v>0.8234226170087572</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4417054263565892</v>
+        <v>0.5857364341085272</v>
       </c>
     </row>
     <row r="4">
@@ -700,13 +700,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8700283403186847</v>
+        <v>0.4576095161490504</v>
       </c>
       <c r="C4" t="n">
-        <v>1.279122458393211</v>
+        <v>2.613026550178544</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5341860465116279</v>
+        <v>1.259302325581395</v>
       </c>
     </row>
     <row r="5">
@@ -716,13 +716,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6637258951051042</v>
+        <v>0.1191845920670991</v>
       </c>
       <c r="C5" t="n">
-        <v>5.199236974429908</v>
+        <v>8.414636335051135</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6913178294573643</v>
+        <v>1.786124031007752</v>
       </c>
     </row>
     <row r="6">
@@ -732,13 +732,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7641246777658431</v>
+        <v>0.6840296723952739</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5627713815635766</v>
+        <v>0.6513492258024787</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3071317829457365</v>
+        <v>0.4483720930232558</v>
       </c>
     </row>
     <row r="7">
@@ -748,13 +748,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.942346464910364</v>
+        <v>0.5662104000608024</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8540196791661775</v>
+        <v>2.342580237802461</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5382170542635659</v>
+        <v>1.370077519379845</v>
       </c>
     </row>
     <row r="8">
@@ -764,13 +764,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9287824285648341</v>
+        <v>0.6486246157041962</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7458281906193145</v>
+        <v>1.656650445228087</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4374418604651162</v>
+        <v>1.027519379844961</v>
       </c>
     </row>
     <row r="9">
@@ -780,13 +780,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.7992659087168797</v>
+        <v>0.6618354236381589</v>
       </c>
       <c r="C9" t="n">
-        <v>1.326316809465132</v>
+        <v>1.721475165137751</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6463565891472868</v>
+        <v>1.07015503875969</v>
       </c>
     </row>
     <row r="10">
@@ -796,13 +796,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9445433886595072</v>
+        <v>0.5999875644814201</v>
       </c>
       <c r="C10" t="n">
-        <v>1.393539078314884</v>
+        <v>3.742650161657931</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8410077519379845</v>
+        <v>2.225348837209302</v>
       </c>
     </row>
     <row r="11">
@@ -812,13 +812,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9375235407822391</v>
+        <v>0.5961886680414805</v>
       </c>
       <c r="C11" t="n">
-        <v>1.634797476967002</v>
+        <v>4.156186292278538</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9520930232558139</v>
+        <v>2.514341085271318</v>
       </c>
     </row>
     <row r="12">
@@ -828,13 +828,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.6833515463917527</v>
+        <v>0.621630759520303</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4253024459636174</v>
+        <v>0.4649080929428105</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2576744186046512</v>
+        <v>0.3229457364341085</v>
       </c>
     </row>
   </sheetData>

--- a/Results/random_forest_results.xlsx
+++ b/Results/random_forest_results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Random Forest Results Test Data" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Random Forest Results All Data" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Random Forest Results Test Data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Random Forest Results All Data" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -451,173 +451,173 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.1243282568807338</v>
+        <v>0.5571001376146789</v>
       </c>
       <c r="C2" t="n">
-        <v>6.02145522917202</v>
+        <v>3.77926783711017</v>
       </c>
       <c r="D2" t="n">
-        <v>5.09</v>
+        <v>2.94576923076923</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>OutDeg_Var.Dep_RedeControlExtAusencia</t>
+          <t>Indeg_Var.Dep_RedeControlExtAusencia</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1097633391710451</v>
+        <v>-0.2204898203592813</v>
       </c>
       <c r="C3" t="n">
-        <v>1.501958977213016</v>
+        <v>1.553091210358332</v>
       </c>
       <c r="D3" t="n">
-        <v>1.248076923076923</v>
+        <v>1.194615384615385</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>OutDeg_Var.Dep_ApoioSpecDiqCint</t>
+          <t>Indeg_Var.Dep_ApoioSpecDiqCint</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1165035479632059</v>
+        <v>0.1845091900311525</v>
       </c>
       <c r="C4" t="n">
-        <v>5.137580993185261</v>
+        <v>1.244568198211733</v>
       </c>
       <c r="D4" t="n">
-        <v>2.752307692307693</v>
+        <v>1.005769230769231</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>OutDeg_Var.Dep_ApoioSpecTubos</t>
+          <t>Indeg_Var.Dep_ApoioSpecTubos</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.09868936411809215</v>
+        <v>-0.3514523622047248</v>
       </c>
       <c r="C5" t="n">
-        <v>18.30112638399825</v>
+        <v>1.007764090220753</v>
       </c>
       <c r="D5" t="n">
-        <v>5.739615384615385</v>
+        <v>0.8196153846153845</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>OutDeg_Var.Dep_RedApoiLevntDiCin</t>
+          <t>Indeg_Var.Dep_RedApoiLevntDiCin</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.2827671497584539</v>
+        <v>-0.09575235457063713</v>
       </c>
       <c r="C6" t="n">
-        <v>1.085541339608953</v>
+        <v>0.7649560067792738</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7900000000000001</v>
+        <v>0.5611538461538461</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>OutDeg_RedCont_DiqPriqDiqCint</t>
+          <t>Indeg_RedCont_DiqPriqDiqCint</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.2692361915686836</v>
+        <v>0.202233923705722</v>
       </c>
       <c r="C7" t="n">
-        <v>4.431844120418983</v>
+        <v>1.316216898188487</v>
       </c>
       <c r="D7" t="n">
-        <v>3.153461538461539</v>
+        <v>0.9342307692307693</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>OutDeg_RedeRepar_DiqPriqDiqCint</t>
+          <t>Indeg_RedeRepar_DiqPriqDiqCint</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.2301131491712709</v>
+        <v>0.4509811422413793</v>
       </c>
       <c r="C8" t="n">
-        <v>2.869514834360573</v>
+        <v>1.227748094934537</v>
       </c>
       <c r="D8" t="n">
-        <v>2.196153846153846</v>
+        <v>0.9157692307692307</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>OutDeg_Red-Val_Cont1Rep2DiqCin</t>
+          <t>Indeg_Red-Val_Cont1Rep2DiqCin</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.4672496878363834</v>
+        <v>-0.3495372222222222</v>
       </c>
       <c r="C9" t="n">
-        <v>3.175203203673016</v>
+        <v>2.543264861127553</v>
       </c>
       <c r="D9" t="n">
-        <v>2.286153846153846</v>
+        <v>1.816538461538462</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>OutDeg_Red-Val_Cont1Rep2DiqPrq</t>
+          <t>Indeg_Red-Val_Cont1Rep2DiqPrq</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.2236697023179193</v>
+        <v>0.5281636514522822</v>
       </c>
       <c r="C10" t="n">
-        <v>6.793652014366624</v>
+        <v>1.834196533383738</v>
       </c>
       <c r="D10" t="n">
-        <v>4.907692307692309</v>
+        <v>1.544615384615385</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>OutDeg_ContRep2_DiqPrqCin</t>
+          <t>Indeg_ContRep2_DiqPrqCin</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.258240847260008</v>
+        <v>0.46040901416122</v>
       </c>
       <c r="C11" t="n">
-        <v>7.580870155047658</v>
+        <v>2.421170251059471</v>
       </c>
       <c r="D11" t="n">
-        <v>5.453076923076924</v>
+        <v>1.914230769230769</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>OutDeg_Var.Dep_RedePartilhaAgu</t>
+          <t>Indeg_Var.Dep_RedePartilhaAgu</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.04222499999999985</v>
+        <v>-0.3786290322580643</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8246677652709139</v>
+        <v>0.7111745431110641</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6446153846153846</v>
+        <v>0.5592307692307692</v>
       </c>
     </row>
   </sheetData>
@@ -668,173 +668,173 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6295160157859634</v>
+        <v>0.7970233917731171</v>
       </c>
       <c r="C2" t="n">
-        <v>3.23751890838811</v>
+        <v>2.396351878498105</v>
       </c>
       <c r="D2" t="n">
-        <v>2.303720930232558</v>
+        <v>1.655348837209302</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>OutDeg_Var.Dep_RedeControlExtAusencia</t>
+          <t>Indeg_Var.Dep_RedeControlExtAusencia</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7027031302698145</v>
+        <v>0.5171970068926446</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8234226170087572</v>
+        <v>0.7839326422575471</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5857364341085272</v>
+        <v>0.4889922480620155</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>OutDeg_Var.Dep_ApoioSpecDiqCint</t>
+          <t>Indeg_Var.Dep_ApoioSpecDiqCint</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4576095161490504</v>
+        <v>0.7508383848507226</v>
       </c>
       <c r="C4" t="n">
-        <v>2.613026550178544</v>
+        <v>0.7534633214325606</v>
       </c>
       <c r="D4" t="n">
-        <v>1.259302325581395</v>
+        <v>0.5547286821705426</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>OutDeg_Var.Dep_ApoioSpecTubos</t>
+          <t>Indeg_Var.Dep_ApoioSpecTubos</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1191845920670991</v>
+        <v>0.6735466764533177</v>
       </c>
       <c r="C5" t="n">
-        <v>8.414636335051135</v>
+        <v>0.578000429172878</v>
       </c>
       <c r="D5" t="n">
-        <v>1.786124031007752</v>
+        <v>0.4058139534883721</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>OutDeg_Var.Dep_RedApoiLevntDiCin</t>
+          <t>Indeg_Var.Dep_RedApoiLevntDiCin</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6840296723952739</v>
+        <v>0.7933927531206658</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6513492258024787</v>
+        <v>0.5676778483743079</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4483720930232558</v>
+        <v>0.4123255813953488</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>OutDeg_RedCont_DiqPriqDiqCint</t>
+          <t>Indeg_RedCont_DiqPriqDiqCint</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5662104000608024</v>
+        <v>0.8149732472662107</v>
       </c>
       <c r="C7" t="n">
-        <v>2.342580237802461</v>
+        <v>0.7797684013153666</v>
       </c>
       <c r="D7" t="n">
-        <v>1.370077519379845</v>
+        <v>0.5511627906976745</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>OutDeg_RedeRepar_DiqPriqDiqCint</t>
+          <t>Indeg_RedeRepar_DiqPriqDiqCint</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.6486246157041962</v>
+        <v>0.8012177650618258</v>
       </c>
       <c r="C8" t="n">
-        <v>1.656650445228087</v>
+        <v>0.7381398157509858</v>
       </c>
       <c r="D8" t="n">
-        <v>1.027519379844961</v>
+        <v>0.5115503875968993</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>OutDeg_Red-Val_Cont1Rep2DiqCin</t>
+          <t>Indeg_Red-Val_Cont1Rep2DiqCin</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.6618354236381589</v>
+        <v>0.7089956538616814</v>
       </c>
       <c r="C9" t="n">
-        <v>1.721475165137751</v>
+        <v>1.500806501531347</v>
       </c>
       <c r="D9" t="n">
-        <v>1.07015503875969</v>
+        <v>0.9386046511627906</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>OutDeg_Red-Val_Cont1Rep2DiqPrq</t>
+          <t>Indeg_Red-Val_Cont1Rep2DiqPrq</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.5999875644814201</v>
+        <v>0.8409435289372857</v>
       </c>
       <c r="C10" t="n">
-        <v>3.742650161657931</v>
+        <v>1.192459512907034</v>
       </c>
       <c r="D10" t="n">
-        <v>2.225348837209302</v>
+        <v>0.9015503875968992</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>OutDeg_ContRep2_DiqPrqCin</t>
+          <t>Indeg_ContRep2_DiqPrqCin</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.5961886680414805</v>
+        <v>0.8201809442677197</v>
       </c>
       <c r="C11" t="n">
-        <v>4.156186292278538</v>
+        <v>1.481356491282084</v>
       </c>
       <c r="D11" t="n">
-        <v>2.514341085271318</v>
+        <v>1.066821705426357</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>OutDeg_Var.Dep_RedePartilhaAgu</t>
+          <t>Indeg_Var.Dep_RedePartilhaAgu</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.621630759520303</v>
+        <v>0.7194415008527573</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4649080929428105</v>
+        <v>0.4218232849439801</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3229457364341085</v>
+        <v>0.2955038759689923</v>
       </c>
     </row>
   </sheetData>

--- a/Results/random_forest_results.xlsx
+++ b/Results/random_forest_results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Random Forest Results Test Data" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Random Forest Results All Data" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Random Forest Results Test Data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Random Forest Results All Data" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Variable Dependiente</t>
+          <t>Dependent Variable</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -451,13 +451,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5571001376146789</v>
+        <v>0.2348702591586521</v>
       </c>
       <c r="C2" t="n">
-        <v>3.77926783711017</v>
+        <v>3.926437512359204</v>
       </c>
       <c r="D2" t="n">
-        <v>2.94576923076923</v>
+        <v>3.182692307692307</v>
       </c>
     </row>
     <row r="3">
@@ -467,13 +467,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.2204898203592813</v>
+        <v>-0.1438784782608693</v>
       </c>
       <c r="C3" t="n">
-        <v>1.553091210358332</v>
+        <v>1.247700962694063</v>
       </c>
       <c r="D3" t="n">
-        <v>1.194615384615385</v>
+        <v>1.032692307692308</v>
       </c>
     </row>
     <row r="4">
@@ -483,13 +483,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1845091900311525</v>
+        <v>0.01036017378711085</v>
       </c>
       <c r="C4" t="n">
-        <v>1.244568198211733</v>
+        <v>1.421877144968796</v>
       </c>
       <c r="D4" t="n">
-        <v>1.005769230769231</v>
+        <v>1.150384615384615</v>
       </c>
     </row>
     <row r="5">
@@ -499,13 +499,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.3514523622047248</v>
+        <v>0.1068773255813952</v>
       </c>
       <c r="C5" t="n">
-        <v>1.007764090220753</v>
+        <v>0.9534028126017476</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8196153846153845</v>
+        <v>0.7953846153846152</v>
       </c>
     </row>
     <row r="6">
@@ -515,13 +515,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.09575235457063713</v>
+        <v>-0.0419365517241379</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7649560067792738</v>
+        <v>1.337138160976068</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5611538461538461</v>
+        <v>1.073076923076923</v>
       </c>
     </row>
     <row r="7">
@@ -531,13 +531,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.202233923705722</v>
+        <v>0.3449559417040358</v>
       </c>
       <c r="C7" t="n">
-        <v>1.316216898188487</v>
+        <v>1.314798902435713</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9342307692307693</v>
+        <v>1.026538461538462</v>
       </c>
     </row>
     <row r="8">
@@ -547,13 +547,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.4509811422413793</v>
+        <v>0.00202998281786948</v>
       </c>
       <c r="C8" t="n">
-        <v>1.227748094934537</v>
+        <v>1.853859798864562</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9157692307692307</v>
+        <v>1.415769230769231</v>
       </c>
     </row>
     <row r="9">
@@ -563,13 +563,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.3495372222222222</v>
+        <v>0.06420380159304862</v>
       </c>
       <c r="C9" t="n">
-        <v>2.543264861127553</v>
+        <v>2.765311917306979</v>
       </c>
       <c r="D9" t="n">
-        <v>1.816538461538462</v>
+        <v>2.025769230769231</v>
       </c>
     </row>
     <row r="10">
@@ -579,13 +579,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.5281636514522822</v>
+        <v>0.3774394433129666</v>
       </c>
       <c r="C10" t="n">
-        <v>1.834196533383738</v>
+        <v>2.329425482157152</v>
       </c>
       <c r="D10" t="n">
-        <v>1.544615384615385</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="11">
@@ -595,13 +595,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.46040901416122</v>
+        <v>0.283863867998653</v>
       </c>
       <c r="C11" t="n">
-        <v>2.421170251059471</v>
+        <v>3.0721252979255</v>
       </c>
       <c r="D11" t="n">
-        <v>1.914230769230769</v>
+        <v>2.418461538461539</v>
       </c>
     </row>
     <row r="12">
@@ -611,13 +611,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.3786290322580643</v>
+        <v>0.02863235294117628</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7111745431110641</v>
+        <v>0.9377653470638836</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5592307692307692</v>
+        <v>0.655</v>
       </c>
     </row>
   </sheetData>
@@ -642,7 +642,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Variable Dependiente</t>
+          <t>Dependent Variable</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -668,13 +668,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7970233917731171</v>
+        <v>0.8067276141784799</v>
       </c>
       <c r="C2" t="n">
-        <v>2.396351878498105</v>
+        <v>2.338366056449137</v>
       </c>
       <c r="D2" t="n">
-        <v>1.655348837209302</v>
+        <v>1.614806201550388</v>
       </c>
     </row>
     <row r="3">
@@ -684,13 +684,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5171970068926446</v>
+        <v>0.6266636955905959</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7839326422575471</v>
+        <v>0.6893565137871515</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4889922480620155</v>
+        <v>0.4851162790697675</v>
       </c>
     </row>
     <row r="4">
@@ -700,13 +700,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7508383848507226</v>
+        <v>0.7135094946724339</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7534633214325606</v>
+        <v>0.8079354491062269</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5547286821705426</v>
+        <v>0.5792248062015504</v>
       </c>
     </row>
     <row r="5">
@@ -716,13 +716,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6735466764533177</v>
+        <v>0.7087296652965355</v>
       </c>
       <c r="C5" t="n">
-        <v>0.578000429172878</v>
+        <v>0.5459661800582907</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4058139534883721</v>
+        <v>0.3914728682170542</v>
       </c>
     </row>
     <row r="6">
@@ -732,13 +732,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7933927531206658</v>
+        <v>0.6551461627369395</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5676778483743079</v>
+        <v>0.7334097916449031</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4123255813953488</v>
+        <v>0.4843410852713178</v>
       </c>
     </row>
     <row r="7">
@@ -748,13 +748,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8149732472662107</v>
+        <v>0.8125364810006217</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7797684013153666</v>
+        <v>0.7848863049053073</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5511627906976745</v>
+        <v>0.5485271317829457</v>
       </c>
     </row>
     <row r="8">
@@ -764,13 +764,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.8012177650618258</v>
+        <v>0.6747159168639831</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7381398157509858</v>
+        <v>0.9442375210316687</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5115503875968993</v>
+        <v>0.5589147286821705</v>
       </c>
     </row>
     <row r="9">
@@ -780,13 +780,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.7089956538616814</v>
+        <v>0.688946591720754</v>
       </c>
       <c r="C9" t="n">
-        <v>1.500806501531347</v>
+        <v>1.551645288323074</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9386046511627906</v>
+        <v>0.934263565891473</v>
       </c>
     </row>
     <row r="10">
@@ -796,13 +796,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8409435289372857</v>
+        <v>0.7996268501714054</v>
       </c>
       <c r="C10" t="n">
-        <v>1.192459512907034</v>
+        <v>1.338405565351677</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9015503875968992</v>
+        <v>0.9253488372093022</v>
       </c>
     </row>
     <row r="11">
@@ -812,13 +812,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8201809442677197</v>
+        <v>0.7735210805700273</v>
       </c>
       <c r="C11" t="n">
-        <v>1.481356491282084</v>
+        <v>1.662476904310054</v>
       </c>
       <c r="D11" t="n">
-        <v>1.066821705426357</v>
+        <v>1.097519379844961</v>
       </c>
     </row>
     <row r="12">
@@ -828,13 +828,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.7194415008527573</v>
+        <v>0.6255760943718021</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4218232849439801</v>
+        <v>0.4873047213734628</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2955038759689923</v>
+        <v>0.2910852713178294</v>
       </c>
     </row>
   </sheetData>
